--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_258.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_258.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32648-d84094-Reviews-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>147</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Extended-Stay-America-Los-Angeles-Long-Beach-Airport.h79482.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_258.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_258.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="702">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1986 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r560722943-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>32648</t>
+  </si>
+  <si>
+    <t>84094</t>
+  </si>
+  <si>
+    <t>560722943</t>
+  </si>
+  <si>
+    <t>02/15/2018</t>
+  </si>
+  <si>
+    <t>2 Day Visit</t>
+  </si>
+  <si>
+    <t>Our room was nice and clean, so basically we were happy with our stay. The only inconveniences were that this hotel has problems logging on to their free WiFi with more than one device. We had 6 devices needing WiFi so we had to call tech support to get the connections. Their vending machines were mostly empty and we couldn’t get them to work anyway. The staff was very friendly and helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded February 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2018</t>
+  </si>
+  <si>
+    <t>Our room was nice and clean, so basically we were happy with our stay. The only inconveniences were that this hotel has problems logging on to their free WiFi with more than one device. We had 6 devices needing WiFi so we had to call tech support to get the connections. Their vending machines were mostly empty and we couldn’t get them to work anyway. The staff was very friendly and helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r552137173-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>552137173</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t>My night at Stay America</t>
+  </si>
+  <si>
+    <t>My experience was nice comforting and peaceful! Reservations accurate, room lighting great, location from conference close. And I received all the utensils to cook my food. And the staff was willing to help, and kind.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded January 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2018</t>
+  </si>
+  <si>
+    <t>My experience was nice comforting and peaceful! Reservations accurate, room lighting great, location from conference close. And I received all the utensils to cook my food. And the staff was willing to help, and kind.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r547011085-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>547011085</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Meh</t>
+  </si>
+  <si>
+    <t>No room service unless you stay over 7 days. No hangers in the room unless asked for. Grab n go breakfast was coffee, granola bars and instant oatmeal.  Located very close to Long Beach Airport and directly across from the police department. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2017</t>
+  </si>
+  <si>
+    <t>No room service unless you stay over 7 days. No hangers in the room unless asked for. Grab n go breakfast was coffee, granola bars and instant oatmeal.  Located very close to Long Beach Airport and directly across from the police department. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r530834615-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>530834615</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>Dirty bathroom and kitchen. The tv was to small and cable channels suck.actually it was 3 channel the rest were local</t>
+  </si>
+  <si>
+    <t>First the kitchen stuff wasnt there the sink had a baby roach that came out the utensil box they send up to the room ...the bathroom tub had pet in it .didnt like how dusty the everything was.under the kitchen was dirty napkins from the previous guest not clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded October 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2017</t>
+  </si>
+  <si>
+    <t>First the kitchen stuff wasnt there the sink had a baby roach that came out the utensil box they send up to the room ...the bathroom tub had pet in it .didnt like how dusty the everything was.under the kitchen was dirty napkins from the previous guest not clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r512568163-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>512568163</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Have a good stay in Long Beach</t>
+  </si>
+  <si>
+    <t>U know men and women, guys and girls, for me Los Angeles is Long Beach. Those beautiful colored houses on the little harbor (little?), the town full of shops and rests, Queen Mary staring at you ruthlessly. Extended Stay America is a good chain of hotel. I visited the one in Long Beach. No competitors with Italian one which are costly and often without attention to the client. There, always, customers are kings. So get there and have a look. You will be on the game. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>U know men and women, guys and girls, for me Los Angeles is Long Beach. Those beautiful colored houses on the little harbor (little?), the town full of shops and rests, Queen Mary staring at you ruthlessly. Extended Stay America is a good chain of hotel. I visited the one in Long Beach. No competitors with Italian one which are costly and often without attention to the client. There, always, customers are kings. So get there and have a look. You will be on the game. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r512291498-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>512291498</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>Very good hotel, good location</t>
+  </si>
+  <si>
+    <t>Very good room, friendly staff, good location.  Breakfast was very light but there's a diner up the street with large portions and reasonable prices.  Room was comfortable and clean.  Plenty of parking was available.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Very good room, friendly staff, good location.  Breakfast was very light but there's a diner up the street with large portions and reasonable prices.  Room was comfortable and clean.  Plenty of parking was available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r506952119-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>506952119</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Watch out for Long Beach Airport Extended Stay America</t>
+  </si>
+  <si>
+    <t>The shower didn't work at all and no maintenance person was on duty at night.  There was no wake-up call service.  The "grab and go" breakfast was paltry.  The manager did give me a 25% reduction on my room as a result of the shower being non-operational and I appreciated that. There were some sort of disreputable looking carriers, looking almost like transients, hanging around the lobby when I checked in and the vibe was creepy.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2017</t>
+  </si>
+  <si>
+    <t>The shower didn't work at all and no maintenance person was on duty at night.  There was no wake-up call service.  The "grab and go" breakfast was paltry.  The manager did give me a 25% reduction on my room as a result of the shower being non-operational and I appreciated that. There were some sort of disreputable looking carriers, looking almost like transients, hanging around the lobby when I checked in and the vibe was creepy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r506365200-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>506365200</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>No amenities</t>
+  </si>
+  <si>
+    <t>Pet hair everywhere including kitchen counters and all corners of floors. They call a granola bar with black coffee breakfast! You have to "purchase" plates, silverware etc if you want an equipped kitchen.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Pet hair everywhere including kitchen counters and all corners of floors. They call a granola bar with black coffee breakfast! You have to "purchase" plates, silverware etc if you want an equipped kitchen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r505286537-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>505286537</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Place was dirty</t>
+  </si>
+  <si>
+    <t>The workers were great. It was the room it self that was gross. Fan had not been cleaned in probably a year. Beds were terrible and couch bed omg was probably 50 years old total springs. And there were no sheets it was just a matress. The room felt dark even when all the lights were on. And I the window did not have a sheer curtain only a blackout one. So if you wanted sun light all the people in the parking lot could see inside your room. We were ground level. They say a breakfast is included but it was pretty lame. Grain bar or muffin. No fruit but coffee was good. Overall. Would never recommend it or ever stay there again. Motel 6 is a better option. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>The workers were great. It was the room it self that was gross. Fan had not been cleaned in probably a year. Beds were terrible and couch bed omg was probably 50 years old total springs. And there were no sheets it was just a matress. The room felt dark even when all the lights were on. And I the window did not have a sheer curtain only a blackout one. So if you wanted sun light all the people in the parking lot could see inside your room. We were ground level. They say a breakfast is included but it was pretty lame. Grain bar or muffin. No fruit but coffee was good. Overall. Would never recommend it or ever stay there again. Motel 6 is a better option. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r504408822-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>504408822</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>I really wanted to like this place!</t>
+  </si>
+  <si>
+    <t>I really wanted to like this place, BUT it was dirty!  I paid an extra $25 a night in a non refundable pet charge.  I wish they would use the money to clean the dog poo in the front or the garbage in the back by the dumpster.  The carpet in the front &amp; hallways was dirty &amp; stained.  The day before I left I found a flea on my white slipped!  :/   Good thing my dog has been treated with Advantage II.  I have been checking him daily for fleas since I discovered the pest.  I am guessing staff could clean up the cigarettes, beer bottles &amp; garbage only to have to clean it up all over again.  The staff was pleasant &amp; helpful.  Another guest &amp; I needed to do laundry &amp; someone forget to get their wash out.  I waited over an hour.  Lucky for me the other guest asked the front dest staff about it &amp; she removed it for us.  The rooms are big with a mini kitchen.  There is a large refrigerator, 2 burner cooktop, sink, microwave, &amp; plenty of cupboard space.  They provide dishes &amp; cookware &amp; even a little cookbook that features Sunny Anderson.  Again I wanted to LIKE this place, BUT JUST CAN NOT.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded July 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2017</t>
+  </si>
+  <si>
+    <t>I really wanted to like this place, BUT it was dirty!  I paid an extra $25 a night in a non refundable pet charge.  I wish they would use the money to clean the dog poo in the front or the garbage in the back by the dumpster.  The carpet in the front &amp; hallways was dirty &amp; stained.  The day before I left I found a flea on my white slipped!  :/   Good thing my dog has been treated with Advantage II.  I have been checking him daily for fleas since I discovered the pest.  I am guessing staff could clean up the cigarettes, beer bottles &amp; garbage only to have to clean it up all over again.  The staff was pleasant &amp; helpful.  Another guest &amp; I needed to do laundry &amp; someone forget to get their wash out.  I waited over an hour.  Lucky for me the other guest asked the front dest staff about it &amp; she removed it for us.  The rooms are big with a mini kitchen.  There is a large refrigerator, 2 burner cooktop, sink, microwave, &amp; plenty of cupboard space.  They provide dishes &amp; cookware &amp; even a little cookbook that features Sunny Anderson.  Again I wanted to LIKE this place, BUT JUST CAN NOT.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r504214136-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>504214136</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highly dissatisfied </t>
+  </si>
+  <si>
+    <t>Question... if I have a family of 5 and we have 2 towels in the bathroom how is it at all possible that when we go to the front desk and ask for more towels we were told by the lady in purple... I just started doing laundry so I don't have any....?? Guys were out in the parking lot like the other review said. It was dark and creepy. Slow drain in the bathtub...here's why I won't recommend this hotel... the door lock bolt would not lock. Too late to change rooms and if I can't get towels why would they bother with fixing a lock. MoreShow less</t>
+  </si>
+  <si>
+    <t>Question... if I have a family of 5 and we have 2 towels in the bathroom how is it at all possible that when we go to the front desk and ask for more towels we were told by the lady in purple... I just started doing laundry so I don't have any....?? Guys were out in the parking lot like the other review said. It was dark and creepy. Slow drain in the bathtub...here's why I won't recommend this hotel... the door lock bolt would not lock. Too late to change rooms and if I can't get towels why would they bother with fixing a lock. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r504004539-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>504004539</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Not recomended</t>
+  </si>
+  <si>
+    <t>: (  I difinitely do not staying  again or recomended this hotel the room smell bud  carpet have stains is  very dirty, Bugs in the restroom, Their free breakfast was some old Caffè with muffins that sad out.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>: (  I difinitely do not staying  again or recomended this hotel the room smell bud  carpet have stains is  very dirty, Bugs in the restroom, Their free breakfast was some old Caffè with muffins that sad out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r501934665-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>501934665</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>Not worth it.</t>
+  </si>
+  <si>
+    <t>First impressions says a lot. The room I stayed at needs an update.  The toilet bowl was dirty. The bed squeaks and sheet had small black ink stains. The carpet was not vacuumed.  The front desk people are not great ambassadors for this property. There's no pride to what they do. They are in need of some guest relations training. The stair railing is broken, there's a sign on the wall to be careful. What the heck? Why not get it fixed right away instead? Breakfast to go is coffee and granola bar. Really? I'd go someplace else where I would feel more welcome. Did it feel like home away from home-NO-not at all. No quality control at this place. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded July 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2017</t>
+  </si>
+  <si>
+    <t>First impressions says a lot. The room I stayed at needs an update.  The toilet bowl was dirty. The bed squeaks and sheet had small black ink stains. The carpet was not vacuumed.  The front desk people are not great ambassadors for this property. There's no pride to what they do. They are in need of some guest relations training. The stair railing is broken, there's a sign on the wall to be careful. What the heck? Why not get it fixed right away instead? Breakfast to go is coffee and granola bar. Really? I'd go someplace else where I would feel more welcome. Did it feel like home away from home-NO-not at all. No quality control at this place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r500297256-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>500297256</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Not good at all</t>
+  </si>
+  <si>
+    <t>The hotel is a good location, actually across the street from the Police station, but, the room and hallways smelled damp moldy.  Had a kitchenette which was great except you need to get utensils etc from the front desk - none available the entire week i was there. Never felt safe- in the halls walking from my room to elevator and reveresed - could not get clean towels all week- checked in on monday and left friday morning at 3 am - every day was told to check next day for towels.  Complimentary breakfast was tiny muffins, coffee (no sugar or sugar replacer one day) and granola bars. OH and they were pet friendly which I am all for, BUT huge dog in the room across from mine that barked all night long. I requested a ground floor room close to the entrance, received the farthest room from the elevator on the second floorMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is a good location, actually across the street from the Police station, but, the room and hallways smelled damp moldy.  Had a kitchenette which was great except you need to get utensils etc from the front desk - none available the entire week i was there. Never felt safe- in the halls walking from my room to elevator and reveresed - could not get clean towels all week- checked in on monday and left friday morning at 3 am - every day was told to check next day for towels.  Complimentary breakfast was tiny muffins, coffee (no sugar or sugar replacer one day) and granola bars. OH and they were pet friendly which I am all for, BUT huge dog in the room across from mine that barked all night long. I requested a ground floor room close to the entrance, received the farthest room from the elevator on the second floorMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r499566782-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>499566782</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Fun WeekEND</t>
+  </si>
+  <si>
+    <t>Well i chose this Hotel because it makes me feel like i am at home away from home, when i"m on vacation i will stay at a Hotel like this, because i don"t want to go out and buy my own food and cook it.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded July 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2017</t>
+  </si>
+  <si>
+    <t>Well i chose this Hotel because it makes me feel like i am at home away from home, when i"m on vacation i will stay at a Hotel like this, because i don"t want to go out and buy my own food and cook it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r498084854-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>498084854</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Excruciating Stay America</t>
+  </si>
+  <si>
+    <t>The hall carpets are from the Nixon administration and contain enough organic matter to fertilize the Sinai Dessert.  No coffee makers in the rooms, no hairdryers and the closet door has been replaced by a curtain purchased at the Goodwill Store. Great location but this joint is in serious need of a complete make over.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>The hall carpets are from the Nixon administration and contain enough organic matter to fertilize the Sinai Dessert.  No coffee makers in the rooms, no hairdryers and the closet door has been replaced by a curtain purchased at the Goodwill Store. Great location but this joint is in serious need of a complete make over.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r495033065-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>495033065</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>budget hotel</t>
+  </si>
+  <si>
+    <t>Upon checking in, I was given no information about amenities. As a result, we missed the breakfast. We had a full kitchen, but there were no pots, pans, plates, utensils, glasses, coffee maker or anything supplied without calling the front desk. There were no hand towels, wash clothes eitherMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Upon checking in, I was given no information about amenities. As a result, we missed the breakfast. We had a full kitchen, but there were no pots, pans, plates, utensils, glasses, coffee maker or anything supplied without calling the front desk. There were no hand towels, wash clothes eitherMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r494445756-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>494445756</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Decent Hotel</t>
+  </si>
+  <si>
+    <t>Had zero issues with the hotel, it was mainly issues with other guests. Check in and check out was easy, staff was very friendly and responsive to anything I needed. Other guests felt that having their kids run up and down the hall or doing jumping jacks in their room was acceptable. Again, no bad reflection of the hotel or staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Had zero issues with the hotel, it was mainly issues with other guests. Check in and check out was easy, staff was very friendly and responsive to anything I needed. Other guests felt that having their kids run up and down the hall or doing jumping jacks in their room was acceptable. Again, no bad reflection of the hotel or staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r490370886-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>490370886</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>I found this facility, location and staff to be excellent. It's close to attractions and good restaurants. The rooms were clean and everything worked I clouding the kitchenette. The check in was fast and friendly. Check out was the same and got the grab and go breakfast. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>I found this facility, location and staff to be excellent. It's close to attractions and good restaurants. The rooms were clean and everything worked I clouding the kitchenette. The check in was fast and friendly. Check out was the same and got the grab and go breakfast. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r489935712-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>489935712</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>One step above living in a homeless shelter</t>
+  </si>
+  <si>
+    <t>The place is dirty no one to clean the entrance there was dog poop laying on concrete entrance no one had clean it up and it's been 3 days the staff had to walk by it they did nothing just one example MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded June 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2017</t>
+  </si>
+  <si>
+    <t>The place is dirty no one to clean the entrance there was dog poop laying on concrete entrance no one had clean it up and it's been 3 days the staff had to walk by it they did nothing just one example More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r484720314-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>484720314</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst hotel, arrogant front desk!! </t>
+  </si>
+  <si>
+    <t>I recommend not to book this hotel even if they offer 50$ a night.   Room was not clean, bathroom stinks.   We didn't get any  room service for the 4 days we stayed.   Service was Terrible.   Expect loud music in the evening during weekends if you are staying in the back row rooms of the hotel as there is a party hall ..  we couldn't sleep as they kept playing music till 11.30 pm..   It was mentioned free breakfast - it's literally a muffin, cereals and coffee.   Nothing else..  spare your money and book residence inn next door if you plan to stay nearby this location.  MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>I recommend not to book this hotel even if they offer 50$ a night.   Room was not clean, bathroom stinks.   We didn't get any  room service for the 4 days we stayed.   Service was Terrible.   Expect loud music in the evening during weekends if you are staying in the back row rooms of the hotel as there is a party hall ..  we couldn't sleep as they kept playing music till 11.30 pm..   It was mentioned free breakfast - it's literally a muffin, cereals and coffee.   Nothing else..  spare your money and book residence inn next door if you plan to stay nearby this location.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r479766749-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>479766749</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nope. </t>
+  </si>
+  <si>
+    <t>Only reason i gave it 2 star is cause staff was nice. Ran out of coffee and all toiletries. Really? How does a hotel run our of toiletries and coffee! So disapointed.  Room was supposed to be fully stocked kitchen and it literally had nothing. Empty cupboards. When i called and asked where coffee machine was she said i had to pre request it. I went downstairs to get coffee from lobby to learn they were completely out. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded April 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2017</t>
+  </si>
+  <si>
+    <t>Only reason i gave it 2 star is cause staff was nice. Ran out of coffee and all toiletries. Really? How does a hotel run our of toiletries and coffee! So disapointed.  Room was supposed to be fully stocked kitchen and it literally had nothing. Empty cupboards. When i called and asked where coffee machine was she said i had to pre request it. I went downstairs to get coffee from lobby to learn they were completely out. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r476827941-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>476827941</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Too much for the quality you receive.</t>
+  </si>
+  <si>
+    <t>Security is poor, back door was broken. Door knob to bathroom fell off when we tried to use it. Many guests with dogs and no leashes, makes you wonder about your room. Poor customer service at front desk. I could go on and on....do yourself a favor, stay at the Residence Inn next door. Might cost a bit more, but well worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Security is poor, back door was broken. Door knob to bathroom fell off when we tried to use it. Many guests with dogs and no leashes, makes you wonder about your room. Poor customer service at front desk. I could go on and on....do yourself a favor, stay at the Residence Inn next door. Might cost a bit more, but well worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r469517340-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>469517340</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>HOME AWAY FROM HOME</t>
+  </si>
+  <si>
+    <t>I have been at Extended Stay Long Beach for an extended period of time as I am in the process of relocating. Unfortunately, it is taking longer than expected. However, the bright side is that living at Extended Stay is similar to living in a studio apartment. There's even a desk with chair and lighting for my teenager to use to do her homework. The laundry room is available 24 hours a day and includes vending machines. The door to the room is an exterior door which makes a big difference when it comes to noise. I have a service dog with me and he has been kindly accepted by the staff. I have never encountered a single solitary rude staff person here. There are two staff members who truly stand out as A+ and those would be Anthony and Sadie. I don't know where they get their patience, but I am jealous . . .LOL. They are truly above-average in intelligence, personality, and customer service. I would definitely recommend Extended Stay Long Beach and I know I will return here if the need arises.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded March 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2017</t>
+  </si>
+  <si>
+    <t>I have been at Extended Stay Long Beach for an extended period of time as I am in the process of relocating. Unfortunately, it is taking longer than expected. However, the bright side is that living at Extended Stay is similar to living in a studio apartment. There's even a desk with chair and lighting for my teenager to use to do her homework. The laundry room is available 24 hours a day and includes vending machines. The door to the room is an exterior door which makes a big difference when it comes to noise. I have a service dog with me and he has been kindly accepted by the staff. I have never encountered a single solitary rude staff person here. There are two staff members who truly stand out as A+ and those would be Anthony and Sadie. I don't know where they get their patience, but I am jealous . . .LOL. They are truly above-average in intelligence, personality, and customer service. I would definitely recommend Extended Stay Long Beach and I know I will return here if the need arises.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r430300257-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>430300257</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>I stayed here for the convenience of being central to two cities. It was the worst place I have been to since I was in my 20's. There is no housecleaning service until you leave. I would never go back there again or any other properties. My work set this up for me, so I didn't have a choice to leave once I got there.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for the convenience of being central to two cities. It was the worst place I have been to since I was in my 20's. There is no housecleaning service until you leave. I would never go back there again or any other properties. My work set this up for me, so I didn't have a choice to leave once I got there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r428895363-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>428895363</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Disgusting and negligent</t>
+  </si>
+  <si>
+    <t>My wife decided to add a few days to our Disney vacation because we didn't have to go back to work right away and we were having so much fun in California.  So at the last minute I had to find a hotel at a reasonable rate.  Upon arrival the building looked OK from the outside and the check in process was relatively quick and easy.  This is where it gets bad...As soon as I stepped into the room it felt damp and musty; nothing looked fresh, the floor, kitchen, bathroom, bed, nothing.  But we were adding unexpected cost so whatever, just deal with it... My son started playing with his toys on the bed and one fell and went under the bed.  My wife turned on her phone light and lifted the bed skirt to retrieve the toy.  To her disgust she found a USED CONDOM covered in dust and let out a horrified gag.  I didn't believe her so I looked for myself and as sure as the sky is blue there it lay.... I FREAKED, went straight to the front desk and demanded a refund.  As I was packing up the little that was unpacked I discovered the single chair in the room had something running down the side of it, the side that faced the bed and should have been spotted by house keeping.  I also discovered a small yellow pill in the corner of the...My wife decided to add a few days to our Disney vacation because we didn't have to go back to work right away and we were having so much fun in California.  So at the last minute I had to find a hotel at a reasonable rate.  Upon arrival the building looked OK from the outside and the check in process was relatively quick and easy.  This is where it gets bad...As soon as I stepped into the room it felt damp and musty; nothing looked fresh, the floor, kitchen, bathroom, bed, nothing.  But we were adding unexpected cost so whatever, just deal with it... My son started playing with his toys on the bed and one fell and went under the bed.  My wife turned on her phone light and lifted the bed skirt to retrieve the toy.  To her disgust she found a USED CONDOM covered in dust and let out a horrified gag.  I didn't believe her so I looked for myself and as sure as the sky is blue there it lay.... I FREAKED, went straight to the front desk and demanded a refund.  As I was packing up the little that was unpacked I discovered the single chair in the room had something running down the side of it, the side that faced the bed and should have been spotted by house keeping.  I also discovered a small yellow pill in the corner of the room.  I don't know what the pill was but to be on the floor for any child to pick up and swallow is just plain negligent.  Needless to say this was my first and list time I will ever stay at any Extended Stay America.  SHAMEFUL!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded October 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2016</t>
+  </si>
+  <si>
+    <t>My wife decided to add a few days to our Disney vacation because we didn't have to go back to work right away and we were having so much fun in California.  So at the last minute I had to find a hotel at a reasonable rate.  Upon arrival the building looked OK from the outside and the check in process was relatively quick and easy.  This is where it gets bad...As soon as I stepped into the room it felt damp and musty; nothing looked fresh, the floor, kitchen, bathroom, bed, nothing.  But we were adding unexpected cost so whatever, just deal with it... My son started playing with his toys on the bed and one fell and went under the bed.  My wife turned on her phone light and lifted the bed skirt to retrieve the toy.  To her disgust she found a USED CONDOM covered in dust and let out a horrified gag.  I didn't believe her so I looked for myself and as sure as the sky is blue there it lay.... I FREAKED, went straight to the front desk and demanded a refund.  As I was packing up the little that was unpacked I discovered the single chair in the room had something running down the side of it, the side that faced the bed and should have been spotted by house keeping.  I also discovered a small yellow pill in the corner of the...My wife decided to add a few days to our Disney vacation because we didn't have to go back to work right away and we were having so much fun in California.  So at the last minute I had to find a hotel at a reasonable rate.  Upon arrival the building looked OK from the outside and the check in process was relatively quick and easy.  This is where it gets bad...As soon as I stepped into the room it felt damp and musty; nothing looked fresh, the floor, kitchen, bathroom, bed, nothing.  But we were adding unexpected cost so whatever, just deal with it... My son started playing with his toys on the bed and one fell and went under the bed.  My wife turned on her phone light and lifted the bed skirt to retrieve the toy.  To her disgust she found a USED CONDOM covered in dust and let out a horrified gag.  I didn't believe her so I looked for myself and as sure as the sky is blue there it lay.... I FREAKED, went straight to the front desk and demanded a refund.  As I was packing up the little that was unpacked I discovered the single chair in the room had something running down the side of it, the side that faced the bed and should have been spotted by house keeping.  I also discovered a small yellow pill in the corner of the room.  I don't know what the pill was but to be on the floor for any child to pick up and swallow is just plain negligent.  Needless to say this was my first and list time I will ever stay at any Extended Stay America.  SHAMEFUL!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r423819138-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>423819138</t>
+  </si>
+  <si>
+    <t>09/30/2016</t>
+  </si>
+  <si>
+    <t>What?</t>
+  </si>
+  <si>
+    <t>Room smelled like smoke, no room to change to, no deodorizer offered.  No bedding for pull out for 3rd person and had to wait almost 2 hours for them to bring it.  We went to desk to ask for it 2x.   When I went to ask for shampoo they did not answer the buzzer. The nightstands were sticky and oily.  The toilet did not flush well.  Tiny TV's.  The parking lot was scary, probably should have security walking the property.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded October 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2016</t>
+  </si>
+  <si>
+    <t>Room smelled like smoke, no room to change to, no deodorizer offered.  No bedding for pull out for 3rd person and had to wait almost 2 hours for them to bring it.  We went to desk to ask for it 2x.   When I went to ask for shampoo they did not answer the buzzer. The nightstands were sticky and oily.  The toilet did not flush well.  Tiny TV's.  The parking lot was scary, probably should have security walking the property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r392349406-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>392349406</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Drugs &amp; Pimps!</t>
+  </si>
+  <si>
+    <t>Please do not stay here if you are traveling with your family.  We experienced drug activity during our entire stay.  What was worse, there was a pimp with two of his prostitutes using the hotel to meet John's! What was crazier, the Long Beach PD station can wS literally across the street!  The hotel was fine but again... families with children...GOD NO!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Please do not stay here if you are traveling with your family.  We experienced drug activity during our entire stay.  What was worse, there was a pimp with two of his prostitutes using the hotel to meet John's! What was crazier, the Long Beach PD station can wS literally across the street!  The hotel was fine but again... families with children...GOD NO!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r387471731-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>387471731</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Bed Bugs! Roaches! Disgusting!</t>
+  </si>
+  <si>
+    <t>I wish I could give this ZERO stars.  We found bed bugs in our room, complained and the answer we got was "sorry".  They didn't move us or ever clean our room.Then we found cockroaches under the sink. The room smelled like mildew and was dirty.  The sheets had good stains, probably from previous bug bites.  I have travelled all over the world and this is the most disgusting place I have ever stayed.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2016</t>
+  </si>
+  <si>
+    <t>I wish I could give this ZERO stars.  We found bed bugs in our room, complained and the answer we got was "sorry".  They didn't move us or ever clean our room.Then we found cockroaches under the sink. The room smelled like mildew and was dirty.  The sheets had good stains, probably from previous bug bites.  I have travelled all over the world and this is the most disgusting place I have ever stayed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r384472912-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>384472912</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>Affordable and great last-minute place for those visiting Long Beach</t>
+  </si>
+  <si>
+    <t>I was in Long Beach for a funeral and we needed a place that was close to the funeral area and many of the hotels were booked.Fortunately, ExtendedStay was not only near the funeral area but the price was affordable.  My brother and I need a quick room and the customer service was fantastic, the beds were comfortable and for the most part, the hotel met my expectations as it was clean and comfortable.  No worries of outside noise or neighboring rooms.I would definitely stay at this hotel again and recommend it!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>I was in Long Beach for a funeral and we needed a place that was close to the funeral area and many of the hotels were booked.Fortunately, ExtendedStay was not only near the funeral area but the price was affordable.  My brother and I need a quick room and the customer service was fantastic, the beds were comfortable and for the most part, the hotel met my expectations as it was clean and comfortable.  No worries of outside noise or neighboring rooms.I would definitely stay at this hotel again and recommend it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r369719056-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>369719056</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>My temporary Home</t>
+  </si>
+  <si>
+    <t>Staying at the Extended Stay America in Long Beach Ca. has been so comforting at a time I needed it the most.  The staff are all so nice and have been very helpful.   The rooms nice and clean.  It is located in a safe neighborhood and right across the street is the Long Beach Police Dept.  I would recommend it to anyone coming to Long Beach for a visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Staying at the Extended Stay America in Long Beach Ca. has been so comforting at a time I needed it the most.  The staff are all so nice and have been very helpful.   The rooms nice and clean.  It is located in a safe neighborhood and right across the street is the Long Beach Police Dept.  I would recommend it to anyone coming to Long Beach for a visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r354564300-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>354564300</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bare bones run down </t>
+  </si>
+  <si>
+    <t>Stayed here on business. No real lobby. No 24 hour staff. Room had nothing. Not even a glass or coffee maker. Hallway smelled like smoke. Breakfast consisted of stale muffins and granola bars. The coffee machine was broken so there was no coffee. I will never stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r350966752-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>350966752</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>like home</t>
+  </si>
+  <si>
+    <t>Great location, pets stay free, bbq are area, full kitchen in room, complimentary breakfast and a super friendly staff! I don't know what could have been better for the value. They also have coin laundry and a laundry service on site.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r333606918-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>333606918</t>
+  </si>
+  <si>
+    <t>12/17/2015</t>
+  </si>
+  <si>
+    <t>I wouldn't let my dog walk on the floor</t>
+  </si>
+  <si>
+    <t>The hotel is in a convenient location and the desk staff is friendly and welcoming. The room was not!  The carpet was dirty and shredded in spots. I would not walk in my bare feet.  The kitchenette had grimmy cabinet doors and the closet had only a curtain covering. The bed was comfortable, but the sheets made me itch and there were not enough pillows for two people. There was a nice faux leather recliner that was surprisingly still clean and comfortable. The television had sound problems and could not be lowered to a quieter level. Some stations had interference and static. The tv selection was minimal and no guide. The bathroom had plenty of towels, good water pressure, a big mirror, functioning shower, sink, and toilet, but the shower curtain was grimmy and worn. Even with the promotional 15% rate discount, this was a bad value. I just hope there were no hitch-hiking bed bugs. The grab and go breakfast was icky. The fresh fruit was not a good quality, the muffins looked questionable, and the packets of instant oatmeal were just instant oatmeal. If not for the convenient location and the pet friendly policy, I would not EVER have stayed here.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>The hotel is in a convenient location and the desk staff is friendly and welcoming. The room was not!  The carpet was dirty and shredded in spots. I would not walk in my bare feet.  The kitchenette had grimmy cabinet doors and the closet had only a curtain covering. The bed was comfortable, but the sheets made me itch and there were not enough pillows for two people. There was a nice faux leather recliner that was surprisingly still clean and comfortable. The television had sound problems and could not be lowered to a quieter level. Some stations had interference and static. The tv selection was minimal and no guide. The bathroom had plenty of towels, good water pressure, a big mirror, functioning shower, sink, and toilet, but the shower curtain was grimmy and worn. Even with the promotional 15% rate discount, this was a bad value. I just hope there were no hitch-hiking bed bugs. The grab and go breakfast was icky. The fresh fruit was not a good quality, the muffins looked questionable, and the packets of instant oatmeal were just instant oatmeal. If not for the convenient location and the pet friendly policy, I would not EVER have stayed here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r325566762-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>325566762</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>Very Satisfied Customer</t>
+  </si>
+  <si>
+    <t>I was on a business trip and used Extended Stay and they met all of my needs. The place was clean and comfortable and I have no complaints. The staff is very friendly and I felt welcomed the minute I booked my stay. Will definitely be using them again on my next trip!</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r307840079-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>307840079</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>Not to my satisfaction.</t>
+  </si>
+  <si>
+    <t>Overall experience was horrible.  Several stains on carpet, silver fish bugs on the bed, shower was dusty dirty, bad room odors.  The premise it self needs  to be kept up.  It was my first time here and it will be my last.  Did not enjoy my stay at all. No coffee pot or hair dryer.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r303521634-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>303521634</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>Not Bad</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for only one night. This chain caters to long stay visitors so I'm not surprised that the otherwise fully equipped kitchen was stripped of all dishes, cookware, etc., but hey, why take the coffee maker too?. Even Motel 6 has coffee makers in their rooms. And no hair dryer? To be fair, the check-in staff offered to supply kitchen items but they seemed very busy and I really didn't want to add to their stress. Our room was clean except for a wet wash cloth that we discovered hanging in the shower.  The grab and gulp "breakfast" (or whatever they call it) was a major disappointment. On the evening that we checked-in there were several men barbequing in the parking lot - seemed okay - but why were they all still there in the morning at check-out?  Could they have been living on the grounds?  We were given passwords for free wifi and given options for (expensive) upgrades, which we declined even though the free wifi was nearly worthless. We chose this hotel because others near CSULB were full.  Would we return?  No, unless there were no other options.  Not a bad place overall, but bad value for short term visitors.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for only one night. This chain caters to long stay visitors so I'm not surprised that the otherwise fully equipped kitchen was stripped of all dishes, cookware, etc., but hey, why take the coffee maker too?. Even Motel 6 has coffee makers in their rooms. And no hair dryer? To be fair, the check-in staff offered to supply kitchen items but they seemed very busy and I really didn't want to add to their stress. Our room was clean except for a wet wash cloth that we discovered hanging in the shower.  The grab and gulp "breakfast" (or whatever they call it) was a major disappointment. On the evening that we checked-in there were several men barbequing in the parking lot - seemed okay - but why were they all still there in the morning at check-out?  Could they have been living on the grounds?  We were given passwords for free wifi and given options for (expensive) upgrades, which we declined even though the free wifi was nearly worthless. We chose this hotel because others near CSULB were full.  Would we return?  No, unless there were no other options.  Not a bad place overall, but bad value for short term visitors.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r302646280-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>302646280</t>
+  </si>
+  <si>
+    <t>08/23/2015</t>
+  </si>
+  <si>
+    <t>Comfortable, clean hotel at a good location</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel at least 6 times in the past 2 years, as my daughter attends CSULB, and we had to drive her down, pick her up, or sometimes just come for a visit.  Tghe hotel has a god kitchen, but now you have to ask for all cooking and eating utensils, as the staff says that theft of cookware was a real problem.  I've always enjoyed my stay here, the front desk staff is always friendly and helpful, room is clean, great water pressure in the shower, rooms are roomy and clean, mattresses are firm enough for a decent night's sleep.  Outside noise has never been a problem.  Very convenient to CSULB, and especially the airport if you are flying in.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded September 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2015</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel at least 6 times in the past 2 years, as my daughter attends CSULB, and we had to drive her down, pick her up, or sometimes just come for a visit.  Tghe hotel has a god kitchen, but now you have to ask for all cooking and eating utensils, as the staff says that theft of cookware was a real problem.  I've always enjoyed my stay here, the front desk staff is always friendly and helpful, room is clean, great water pressure in the shower, rooms are roomy and clean, mattresses are firm enough for a decent night's sleep.  Outside noise has never been a problem.  Very convenient to CSULB, and especially the airport if you are flying in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r289311280-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>289311280</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>From Ohio to Long Beach</t>
+  </si>
+  <si>
+    <t>This was my home for about 10 months (from Aug 2014 until June 2015). My daughter and I had a great experience here.  I think sometimes people forget this is a 2 star hotel. My room was always clean, and the staff always tried to make sure we were comfortable.  Carlos, the manager and his staff were always pleasant. Sadie (she is the best) always pleasant and accommodating, Bernice, Cyna were also friendly and helpful! I would stay here anytime I am in Long Beach!</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r263496674-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>263496674</t>
+  </si>
+  <si>
+    <t>04/03/2015</t>
+  </si>
+  <si>
+    <t>Beware bedbug problem</t>
+  </si>
+  <si>
+    <t>My husband and I were having construction done at home and needed another hotel room..... Upon check in my husband performs his routine of checking for signs of bug infestation..... Since I'm a germophobe and he performs inspection's for a living.....When he lifted the mattress he became aware that they had bed bug infestation..... We immediately went to the front desk and vacated the location.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r262238390-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>262238390</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>Will never stay again</t>
+  </si>
+  <si>
+    <t>This hotel is old and dated and tries to operate as a $100+ a night hotel when really their tiny suites should only be $60.They also charge 15% tax per night.There's only queen beds and no kings unless you can afford the $140 a night 1 room suite.Anyway this hotel needs help...The rooms are tiny and the beds are uncomfortable.Air conditioning in room barely worked.They don't keep kitchen items in the rooms so you have to call the front desk and maybe after 2 hours you'll get them.There is very little sound proofing so be prepared to hear everything.Rooms need new microwaves.There are only 20 tv channels and 10 of them are espn/sports, so good luck finding anything to watch. Reception sucks too lots of static for a hotel that charges so much.Shower head had lots of limescale all over it.Internet is slow unless you pay for their high speed upgrade.Curtains are cheap and need to be replaced so that the room can be blacked out.On the whole I feel ripped off and wish I could get my money back. Will never come again. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is old and dated and tries to operate as a $100+ a night hotel when really their tiny suites should only be $60.They also charge 15% tax per night.There's only queen beds and no kings unless you can afford the $140 a night 1 room suite.Anyway this hotel needs help...The rooms are tiny and the beds are uncomfortable.Air conditioning in room barely worked.They don't keep kitchen items in the rooms so you have to call the front desk and maybe after 2 hours you'll get them.There is very little sound proofing so be prepared to hear everything.Rooms need new microwaves.There are only 20 tv channels and 10 of them are espn/sports, so good luck finding anything to watch. Reception sucks too lots of static for a hotel that charges so much.Shower head had lots of limescale all over it.Internet is slow unless you pay for their high speed upgrade.Curtains are cheap and need to be replaced so that the room can be blacked out.On the whole I feel ripped off and wish I could get my money back. Will never come again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r260868338-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>260868338</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>Staffing Specialist</t>
+  </si>
+  <si>
+    <t>Rooms had a foul smell. Bedding smelled moldy and I left with several bites on my legs. When I said something about the bedding smelling moldy I was told I could strip the bed myself and bring it to the front desk and they would give me new bedding. Did offer to switch rooms which I did but the room smelled bad still. Front desk staff was amazing but that was the only good thing I can say about my experience.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r257298306-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>257298306</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>LOUD LOUD LOUD!!!</t>
+  </si>
+  <si>
+    <t>I will NEVER stay at another extended stay. Very Loud guest in hallway at 3 A.M. no one did anything. Bed was extremely uncomfortable I ended up sleeping in chair with feet my feet on the bed. Stayed for two days for business trip. Don't waste your sleep, money, or time!</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r256755585-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>256755585</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>Nice Place to Stay</t>
+  </si>
+  <si>
+    <t>Great location for me! The Extended Stay America was right next door to my seminar so I was able to just walk over.  Nice, clean, comfortable room. What was truly super was the service of Sadie at the front desk. She went the extra mile to ensure my stay was pleasant one.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r250994548-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>250994548</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Business visit to Long Beach</t>
+  </si>
+  <si>
+    <t>I have stayed at Extended Stays in other locations and found this one to be clean and conveniently located. I choose this location because it was priced way better that other hotels that were in some not so good areas. If you know what to expect from Extended Stay locations, this is a great and affordable option.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r238220818-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>238220818</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>Great place with a great staff in Long Beach</t>
+  </si>
+  <si>
+    <t>We come to Long Beach several times a year and have stayed in lots of hotels &amp; motels. We recently tried Extended Stay America and find its the best value for the money. Sadie at the front desk has been very friendly and able to answer any questions we've had. Because of the value and the friendly, knowledgeable staff we highly recommend Extended Stay America Long Beach to anyone coming to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded November 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2014</t>
+  </si>
+  <si>
+    <t>We come to Long Beach several times a year and have stayed in lots of hotels &amp; motels. We recently tried Extended Stay America and find its the best value for the money. Sadie at the front desk has been very friendly and able to answer any questions we've had. Because of the value and the friendly, knowledgeable staff we highly recommend Extended Stay America Long Beach to anyone coming to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r233541575-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>233541575</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>For the price,location and awesome staff. I will only stay here!!</t>
+  </si>
+  <si>
+    <t>It's great. The staff are like family and it truly feels like home. I've stayed here for 5 months for work and love that I'm close to everything. IE airport is a $12.00 cab ride away and they pick you up pretty damn fast.MoreShow less</t>
+  </si>
+  <si>
+    <t>It's great. The staff are like family and it truly feels like home. I've stayed here for 5 months for work and love that I'm close to everything. IE airport is a $12.00 cab ride away and they pick you up pretty damn fast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r232969700-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>232969700</t>
+  </si>
+  <si>
+    <t>10/06/2014</t>
+  </si>
+  <si>
+    <t>Excellent !!</t>
+  </si>
+  <si>
+    <t>I stayed here with my boyfriend and I had not one complaint. The day was hot and we arrived to a cool room with the airconditioning already turned on. Check in was a speedy process. They called us about 1 hour after being in our room just to check on us and ask if we needed anything to better our stay. The room had a small kitchen which is convenient for longer stays, the bed was so comfortable, nice pillows and plenty roomy for me and my bf, the tv was modern with plenty of channels, and the bathroom was clean and huge with amenities and clean towels. I would definitely stay here again! The breakfast was without but its definitely enough to snack on to start your day!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded December 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here with my boyfriend and I had not one complaint. The day was hot and we arrived to a cool room with the airconditioning already turned on. Check in was a speedy process. They called us about 1 hour after being in our room just to check on us and ask if we needed anything to better our stay. The room had a small kitchen which is convenient for longer stays, the bed was so comfortable, nice pillows and plenty roomy for me and my bf, the tv was modern with plenty of channels, and the bathroom was clean and huge with amenities and clean towels. I would definitely stay here again! The breakfast was without but its definitely enough to snack on to start your day!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r232397784-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>232397784</t>
+  </si>
+  <si>
+    <t>10/03/2014</t>
+  </si>
+  <si>
+    <t>Nice place! Courteous staff</t>
+  </si>
+  <si>
+    <t>Not sure what Marco and Emele experienced, but I found this Extended Stay and its team very helpful and courteous during my entire stay, which began September 30.  Equipment for use in the kitchenettes -- including a fry plan and sauce pan, as well as plates, bowls, cups, and utensils --  are available from the front desk (perhaps Marco didn't realize that) and the rooms are clean and well cared for. An iron and full-size ironing board, as well as a hair dryer, were in the room, something I wasn't sure I could expect at this moderately priced hotel. There was also a modest breakfast -- including a selection of fresh fruit, four types of oatmeal, and several different muffins from which to choose. Again, I didn't expect this from a hotel that features kitchenettes (assumed I'd be on my own) in each room. Extended Stay doesn't provide daily maid service, but I didn't mind that.  I don't need fresh linens every single day!  Nice, clean, quiet, with enough outlets for whatever electronics you bring with you, a desk, a separate table and chairs for eating, and even a nicely situated lounge chair so you don't have to sit in bed to watch TV if you don't want to do so!  Definitely would stay here or try another Extended Stay elsewhere again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded November 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2014</t>
+  </si>
+  <si>
+    <t>Not sure what Marco and Emele experienced, but I found this Extended Stay and its team very helpful and courteous during my entire stay, which began September 30.  Equipment for use in the kitchenettes -- including a fry plan and sauce pan, as well as plates, bowls, cups, and utensils --  are available from the front desk (perhaps Marco didn't realize that) and the rooms are clean and well cared for. An iron and full-size ironing board, as well as a hair dryer, were in the room, something I wasn't sure I could expect at this moderately priced hotel. There was also a modest breakfast -- including a selection of fresh fruit, four types of oatmeal, and several different muffins from which to choose. Again, I didn't expect this from a hotel that features kitchenettes (assumed I'd be on my own) in each room. Extended Stay doesn't provide daily maid service, but I didn't mind that.  I don't need fresh linens every single day!  Nice, clean, quiet, with enough outlets for whatever electronics you bring with you, a desk, a separate table and chairs for eating, and even a nicely situated lounge chair so you don't have to sit in bed to watch TV if you don't want to do so!  Definitely would stay here or try another Extended Stay elsewhere again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r231172825-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>231172825</t>
+  </si>
+  <si>
+    <t>09/27/2014</t>
+  </si>
+  <si>
+    <t>Stinks....literally!</t>
+  </si>
+  <si>
+    <t>Stayed there for 3 days and asked for a non smoking room. ...stunk worse than a poker room full of a sailors. Had to go buy a candle to mask the cigarette stench. TV had poor reception, you would think that room with a kitchen would have at least a few cups, they don't provide that, nor complimentary shampoo or other small condiments.  No dim lamps, you also have to go to the Jewish center across the street to get a swim. the complementary breakfast consists of granola bars, muffins, and coffee.  And really that's it! The stairways stink of a smell I have never come across,  i still can't figure it. A definite pass on my next trip to LBCMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Stayed there for 3 days and asked for a non smoking room. ...stunk worse than a poker room full of a sailors. Had to go buy a candle to mask the cigarette stench. TV had poor reception, you would think that room with a kitchen would have at least a few cups, they don't provide that, nor complimentary shampoo or other small condiments.  No dim lamps, you also have to go to the Jewish center across the street to get a swim. the complementary breakfast consists of granola bars, muffins, and coffee.  And really that's it! The stairways stink of a smell I have never come across,  i still can't figure it. A definite pass on my next trip to LBCMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r230421727-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>230421727</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>Rooms are nice but service needs work.</t>
+  </si>
+  <si>
+    <t>Front desk agent who made my reservation was fantastic but the agent who checked me in needed a little more training. I understand she was new but made check in kinda hard. Couldn't check in until 5pm when I arrived at 4 and check in is at 3. I know housekeeping can be slow but not this slow. Was told I would receive 20% off for late check in but I had to make sure to tell agent in morning? That should be something the front desk agent takes care of. I'm already stressed over the late check in now I have to take care of check out. On top of the fact I never even got to sign my reg card. It just made the hotel seem unorganized.MoreShow less</t>
+  </si>
+  <si>
+    <t>Front desk agent who made my reservation was fantastic but the agent who checked me in needed a little more training. I understand she was new but made check in kinda hard. Couldn't check in until 5pm when I arrived at 4 and check in is at 3. I know housekeeping can be slow but not this slow. Was told I would receive 20% off for late check in but I had to make sure to tell agent in morning? That should be something the front desk agent takes care of. I'm already stressed over the late check in now I have to take care of check out. On top of the fact I never even got to sign my reg card. It just made the hotel seem unorganized.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r222663772-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>222663772</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>We stay here a few times a year and have for about 3 years. The place is very clean. Recently updated paint, flooring, tv, mattresses. They are very conservative with their soaps and paper products. You can ask for only the kitchen items you will be using during your stay. The staff is always very friendly (even Syna at 1:30am). Continental breakfast is great. Price per stay is very affordable tooMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded August 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2014</t>
+  </si>
+  <si>
+    <t>We stay here a few times a year and have for about 3 years. The place is very clean. Recently updated paint, flooring, tv, mattresses. They are very conservative with their soaps and paper products. You can ask for only the kitchen items you will be using during your stay. The staff is always very friendly (even Syna at 1:30am). Continental breakfast is great. Price per stay is very affordable tooMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r219490303-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>219490303</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>Very nice staff,dirty room.</t>
+  </si>
+  <si>
+    <t>When we arrived, the place looked great from outside. Parking was free and enough to go around. The staff was friendly and helpful. Elevator was about to break. They even had a hand written yellow post-it sign stating a specific button would cause elevator to get stuck. We used the stairs to be on safe side. The room... Very great size. Paint chips all over walls and smudge marks on bed headboard was not what someone would want to see. It's Nice to have a refrigerator. House keeper needs to do a better job at cleaning out trash. There was old rotten food in the cabinet. Really disgusting to see. The bathroom... Toilet leaked every time you flushed. I did over hear the front desk clerk tell another guest that there was plumbing issues and they were aware. Shower water was nice and hot, but made a noise while on. At night you could hear loud music until about 1am. I believe its due to the event hall next door.  Grab and go breakfast was yummy and satisfying. Laundry room was a great + to have!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded August 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2014</t>
+  </si>
+  <si>
+    <t>When we arrived, the place looked great from outside. Parking was free and enough to go around. The staff was friendly and helpful. Elevator was about to break. They even had a hand written yellow post-it sign stating a specific button would cause elevator to get stuck. We used the stairs to be on safe side. The room... Very great size. Paint chips all over walls and smudge marks on bed headboard was not what someone would want to see. It's Nice to have a refrigerator. House keeper needs to do a better job at cleaning out trash. There was old rotten food in the cabinet. Really disgusting to see. The bathroom... Toilet leaked every time you flushed. I did over hear the front desk clerk tell another guest that there was plumbing issues and they were aware. Shower water was nice and hot, but made a noise while on. At night you could hear loud music until about 1am. I believe its due to the event hall next door.  Grab and go breakfast was yummy and satisfying. Laundry room was a great + to have!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r219244816-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>219244816</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t>Would stay here again</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights while birdwatching in the area. Room was comfortable, clean and quiet, and the kitchenette was useful. Staff was friendly and helpful. There was a laundry room. Easy freeway access, convenient to a large shopping center. Ample parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded August 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights while birdwatching in the area. Room was comfortable, clean and quiet, and the kitchenette was useful. Staff was friendly and helpful. There was a laundry room. Easy freeway access, convenient to a large shopping center. Ample parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r215377066-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>215377066</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>Noisy but clean rooms</t>
+  </si>
+  <si>
+    <t>Rooms clean and comfortable but would prefer king bed in single bedrooms. There is a hall next door that has loud music until midnight would have been nice to know this ahead of time. Also I had rented 2rooms and both did not have smoke detectors in them was a concern for safety.  Staff at hotel is very friendly and helpful. Loved the fact it's a pet friendly hotel as well.  Very close to aquarium of the pacific only about 15 min drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded July 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2014</t>
+  </si>
+  <si>
+    <t>Rooms clean and comfortable but would prefer king bed in single bedrooms. There is a hall next door that has loud music until midnight would have been nice to know this ahead of time. Also I had rented 2rooms and both did not have smoke detectors in them was a concern for safety.  Staff at hotel is very friendly and helpful. Loved the fact it's a pet friendly hotel as well.  Very close to aquarium of the pacific only about 15 min drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r211829000-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>211829000</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Exceeded Expectations</t>
+  </si>
+  <si>
+    <t>Very weary at first but wanted to give it a try, afterwards, I was glad I took the chance.  The hotel was a little older but still maintained exceptionally well.  The staff was excellent and very efficient assuring that they were helpful and efficient.  I would definitely recommend and stay here again!</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r204834660-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>204834660</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>Excellent location</t>
+  </si>
+  <si>
+    <t>Room was clean and comfortable. Great location easy access to the airport.  Front desk and house keeping personnel were friendly, courteous, and helpful. We had a plumbing problem and it was handled immediately. My only negative comment is that the hallways smelled of smoke and pot. I was a little surprised by the negative reviews. But we were pleasently surprised and we would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded July 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2014</t>
+  </si>
+  <si>
+    <t>Room was clean and comfortable. Great location easy access to the airport.  Front desk and house keeping personnel were friendly, courteous, and helpful. We had a plumbing problem and it was handled immediately. My only negative comment is that the hallways smelled of smoke and pot. I was a little surprised by the negative reviews. But we were pleasently surprised and we would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r199087391-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>199087391</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>Home is Where Your Suitcase Is !!!!</t>
+  </si>
+  <si>
+    <t>I recently sold my condo and needed a place to stay on a month to month basis, until I could relocate, I choose Extended Stay because of its location and at that time, the price, plus being able to work out of the Extended Stay Executive Suite. I checked into Extended Stay in April 2013, and end up staying until February 1st, 2014. I felt so comfortable and safe at this Long Beach Airport Location, the hotel staff was outstanding, genuine, down to earth, professional, yet had a good sense of humor. I would like to point out an interesting observation, being a Senior Level Contract Manager, I couldn't help but observed during my nine month Extended Stay, that the Lead Manager Carlos and his staff not only enjoyed having guests, such as myself around, but also showed a professional relaxation around their own boss, Carlos.  During my stay, I noticed  three staff members graduate into the next step of Hotel Management, and this made me feel I had witnessed an accomplishment, of seeing how this Hotel Operates, Makes sense, I felt I was a part of Carlos Extended Stay Family of Guests and Employees.  All his employees, were so down to earth, and had a genuine sense of humor, plus I enjoyed my little chats while I was in the lobby, or walking up or down the hallways, where the housekeepers were always cleaning the rooms with a professional,...I recently sold my condo and needed a place to stay on a month to month basis, until I could relocate, I choose Extended Stay because of its location and at that time, the price, plus being able to work out of the Extended Stay Executive Suite. I checked into Extended Stay in April 2013, and end up staying until February 1st, 2014. I felt so comfortable and safe at this Long Beach Airport Location, the hotel staff was outstanding, genuine, down to earth, professional, yet had a good sense of humor. I would like to point out an interesting observation, being a Senior Level Contract Manager, I couldn't help but observed during my nine month Extended Stay, that the Lead Manager Carlos and his staff not only enjoyed having guests, such as myself around, but also showed a professional relaxation around their own boss, Carlos.  During my stay, I noticed  three staff members graduate into the next step of Hotel Management, and this made me feel I had witnessed an accomplishment, of seeing how this Hotel Operates, Makes sense, I felt I was a part of Carlos Extended Stay Family of Guests and Employees.  All his employees, were so down to earth, and had a genuine sense of humor, plus I enjoyed my little chats while I was in the lobby, or walking up or down the hallways, where the housekeepers were always cleaning the rooms with a professional, friendly manner. What my leading  true point to this review is during my nine month stay, I was solo, yet I never felt alone, for example, all my immediate family lives in Illinois, and I was not able to fly back during Christmas due a personal back injury while organizing my personal storage room. My first Christmas away from my Illinois family was bearable, not just because the Long Beach weather was sunny and warm, but mainly  because I felt I knew Carlos and his staff  well enough to be invited to hang out with them while they had their Employee Christmas Party. The Christmas Tree was beautiful, and the atmosphere at Extended Stay in Long Beach was happy and Cheerful, during the Holiday season, so that is why my review is called  " Home is Where YOUR Suitcase Is !!!! Rick R.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I recently sold my condo and needed a place to stay on a month to month basis, until I could relocate, I choose Extended Stay because of its location and at that time, the price, plus being able to work out of the Extended Stay Executive Suite. I checked into Extended Stay in April 2013, and end up staying until February 1st, 2014. I felt so comfortable and safe at this Long Beach Airport Location, the hotel staff was outstanding, genuine, down to earth, professional, yet had a good sense of humor. I would like to point out an interesting observation, being a Senior Level Contract Manager, I couldn't help but observed during my nine month Extended Stay, that the Lead Manager Carlos and his staff not only enjoyed having guests, such as myself around, but also showed a professional relaxation around their own boss, Carlos.  During my stay, I noticed  three staff members graduate into the next step of Hotel Management, and this made me feel I had witnessed an accomplishment, of seeing how this Hotel Operates, Makes sense, I felt I was a part of Carlos Extended Stay Family of Guests and Employees.  All his employees, were so down to earth, and had a genuine sense of humor, plus I enjoyed my little chats while I was in the lobby, or walking up or down the hallways, where the housekeepers were always cleaning the rooms with a professional,...I recently sold my condo and needed a place to stay on a month to month basis, until I could relocate, I choose Extended Stay because of its location and at that time, the price, plus being able to work out of the Extended Stay Executive Suite. I checked into Extended Stay in April 2013, and end up staying until February 1st, 2014. I felt so comfortable and safe at this Long Beach Airport Location, the hotel staff was outstanding, genuine, down to earth, professional, yet had a good sense of humor. I would like to point out an interesting observation, being a Senior Level Contract Manager, I couldn't help but observed during my nine month Extended Stay, that the Lead Manager Carlos and his staff not only enjoyed having guests, such as myself around, but also showed a professional relaxation around their own boss, Carlos.  During my stay, I noticed  three staff members graduate into the next step of Hotel Management, and this made me feel I had witnessed an accomplishment, of seeing how this Hotel Operates, Makes sense, I felt I was a part of Carlos Extended Stay Family of Guests and Employees.  All his employees, were so down to earth, and had a genuine sense of humor, plus I enjoyed my little chats while I was in the lobby, or walking up or down the hallways, where the housekeepers were always cleaning the rooms with a professional, friendly manner. What my leading  true point to this review is during my nine month stay, I was solo, yet I never felt alone, for example, all my immediate family lives in Illinois, and I was not able to fly back during Christmas due a personal back injury while organizing my personal storage room. My first Christmas away from my Illinois family was bearable, not just because the Long Beach weather was sunny and warm, but mainly  because I felt I knew Carlos and his staff  well enough to be invited to hang out with them while they had their Employee Christmas Party. The Christmas Tree was beautiful, and the atmosphere at Extended Stay in Long Beach was happy and Cheerful, during the Holiday season, so that is why my review is called  " Home is Where YOUR Suitcase Is !!!! Rick R.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r198432862-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>198432862</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Everything was Gross</t>
+  </si>
+  <si>
+    <t>Everything in the room and in the hallway smelled gross, the sink was in disrepair, there was a damp and moldy wooden bench in the bathtub.  The upstairs guests were loud all night long, and no one answered at the front desk when needed. Never staying at an extended stay again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r187542227-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>187542227</t>
+  </si>
+  <si>
+    <t>12/13/2013</t>
+  </si>
+  <si>
+    <t>Decent room, too expensive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff were excellent. Room much too expensive for a one-night stay and knowing the hour in which it was booked, too expensive. Room has extensive facilities, excellent for long stays. Extra towels and pillows were already in room. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r180881629-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>180881629</t>
+  </si>
+  <si>
+    <t>10/13/2013</t>
+  </si>
+  <si>
+    <t>Easy stay</t>
+  </si>
+  <si>
+    <t>I stayed here while searching for a new home in the area.  I  found it perfect for what I needed.  Clean, courteous staff, small kitchenette, washer and dryer.   They have a quick breakfast set up in the lobby with fresh fruit, oatmeal, breakfast bars, etc. just what you need if your in a hurry in the morning.  My only complaint was that they need sliding doors to get into the lobby.  Trying to get in and out through a heavy pull door with large luggage was awkward.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r179869844-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>179869844</t>
+  </si>
+  <si>
+    <t>10/05/2013</t>
+  </si>
+  <si>
+    <t>Very good hotel in a good area</t>
+  </si>
+  <si>
+    <t>This hotel is near the Long Beach airport and right off the 405 interstate; easy to get anywhere in the area from here.Employees are nice and rooms are clean.I only stay here a few days at a time, until I find a hotel for long term.since I am on the road about 350 days a year, I want decent TV choices.  this has just the basics. No history, A&amp;E, food, NFL, speed,  etc...these are the channels I watch.if they upgrade the TV channels, This would probably be my home base when I'm in the area cause I love every thing else about it.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r176391225-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>176391225</t>
+  </si>
+  <si>
+    <t>09/08/2013</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>We needed a place that we could save a few bucks by cooking and eating in.  That place is Extended Stay.  This is a very affordable stay and the conditions of the room is a lot better than other Extended Stays I've been to.  This place is close to the airport and the 405 freeway--so it's easy to travel.  It even has a Breakfast to go ( consisting of granola/oatmeal bars, juice/tea/coffee, and fruits)  I'll keep it short...Positives: cost, cleanliness, friendly and accommodating staff(we must have called 5 times for various things ranging from utensils and activating the smoke alarm), close to airport, FREE wifiNegatives: not much to do around that area--you need to drive or ride the bus into downtown or the beach, strangely, there are many cats off on the east side of the parking, and although we asked for a non-smoking room, throughout the day, our bathroom would smell vaguely of cigarettes.  (I think it's a shared vent from the neighbors.) we kept the fan on all day.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded September 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2013</t>
+  </si>
+  <si>
+    <t>We needed a place that we could save a few bucks by cooking and eating in.  That place is Extended Stay.  This is a very affordable stay and the conditions of the room is a lot better than other Extended Stays I've been to.  This place is close to the airport and the 405 freeway--so it's easy to travel.  It even has a Breakfast to go ( consisting of granola/oatmeal bars, juice/tea/coffee, and fruits)  I'll keep it short...Positives: cost, cleanliness, friendly and accommodating staff(we must have called 5 times for various things ranging from utensils and activating the smoke alarm), close to airport, FREE wifiNegatives: not much to do around that area--you need to drive or ride the bus into downtown or the beach, strangely, there are many cats off on the east side of the parking, and although we asked for a non-smoking room, throughout the day, our bathroom would smell vaguely of cigarettes.  (I think it's a shared vent from the neighbors.) we kept the fan on all day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r175548479-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>175548479</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Very Nice.</t>
+  </si>
+  <si>
+    <t>I relocated to Los Angeles for a job. I stayed here for a month while I looked for an apartment. The studio room I had was very clean and nicely furnished. It was a very quiet corner unit. Having a kitchenette was very convenient, as was the on-site laundry room. A continental breakfast in the lobby every morning was included in the stay. Housekeeping came once a week and all the employees were friendly and helpful. There were several casual restaurants within walking distance. This is a very nice, reasonably priced hotel for anyone needing a longer stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I relocated to Los Angeles for a job. I stayed here for a month while I looked for an apartment. The studio room I had was very clean and nicely furnished. It was a very quiet corner unit. Having a kitchenette was very convenient, as was the on-site laundry room. A continental breakfast in the lobby every morning was included in the stay. Housekeeping came once a week and all the employees were friendly and helpful. There were several casual restaurants within walking distance. This is a very nice, reasonably priced hotel for anyone needing a longer stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r175281555-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>175281555</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>What a surprise.</t>
+  </si>
+  <si>
+    <t>The room was really nice decorated and everything was clean, the employees were really helpful, if you have a car the hotel is only 5 - 10 minutes from the "action". The room was super quiet and more than OK for the price. Internet service was free, if you want to increase to higher speeds several options are available at competitive prices. After paying 15$ for 3-4 hours of parking in Long Beach, the free parking feature was a relief! :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>The room was really nice decorated and everything was clean, the employees were really helpful, if you have a car the hotel is only 5 - 10 minutes from the "action". The room was super quiet and more than OK for the price. Internet service was free, if you want to increase to higher speeds several options are available at competitive prices. After paying 15$ for 3-4 hours of parking in Long Beach, the free parking feature was a relief! :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r172432688-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>172432688</t>
+  </si>
+  <si>
+    <t>08/15/2013</t>
+  </si>
+  <si>
+    <t>LOVED IT</t>
+  </si>
+  <si>
+    <t>I stayed here with my boyfriend in March and it was great. It was like having our own apartment for the weekend. We can cook in or go out. The only down side is they have no swimming pool the beach isnt to far and my boyfriend is from there so I felt right at home. We will be staying there again in September. I love that it is close to Long Beach Municipal Airport too just 1 mile. Worth the stay and very private.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded August 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here with my boyfriend in March and it was great. It was like having our own apartment for the weekend. We can cook in or go out. The only down side is they have no swimming pool the beach isnt to far and my boyfriend is from there so I felt right at home. We will be staying there again in September. I love that it is close to Long Beach Municipal Airport too just 1 mile. Worth the stay and very private.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r167718707-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>167718707</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Great value, pretty clean but noisy</t>
+  </si>
+  <si>
+    <t>The room smelled funky all the time we stayed there (4 nights). It didn't help to open the windows. The cleaners had also forgotten to empty the trash from the previous guests and the A/C went *BAM* every time it started up.But, the place was nice. The room was big and you do get great value for your buck. Bring your own shampoo, though. There is a small kitchen in the room, where you can make your breakfast (you get what you want from the grab-and-go breakfast in the lobby and prepare it for yourself in the room).The staff was friendly and helpful and parking lot always had plenty of room.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2013</t>
+  </si>
+  <si>
+    <t>The room smelled funky all the time we stayed there (4 nights). It didn't help to open the windows. The cleaners had also forgotten to empty the trash from the previous guests and the A/C went *BAM* every time it started up.But, the place was nice. The room was big and you do get great value for your buck. Bring your own shampoo, though. There is a small kitchen in the room, where you can make your breakfast (you get what you want from the grab-and-go breakfast in the lobby and prepare it for yourself in the room).The staff was friendly and helpful and parking lot always had plenty of room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r164524060-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>164524060</t>
+  </si>
+  <si>
+    <t>06/19/2013</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Facility was clean and recently renovated. The room appeared to have just been painted and with new carpet and fixtures. Very nice. Convenient to Long Beach airport. I would stay here again. Staff was helpful and friendly. Facility was completely full but was still clean. Room was quiet. Breakfast was well-stocked, nothing fancy, but was greatly appreciated since we had a very early flight.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded June 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2013</t>
+  </si>
+  <si>
+    <t>Facility was clean and recently renovated. The room appeared to have just been painted and with new carpet and fixtures. Very nice. Convenient to Long Beach airport. I would stay here again. Staff was helpful and friendly. Facility was completely full but was still clean. Room was quiet. Breakfast was well-stocked, nothing fancy, but was greatly appreciated since we had a very early flight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r161942426-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>161942426</t>
+  </si>
+  <si>
+    <t>05/26/2013</t>
+  </si>
+  <si>
+    <t>Cute, Clean and Quiet</t>
+  </si>
+  <si>
+    <t>Room was very small but it was clean and quiet. Bring your own shampoo and hair dryer but an iron is provided. Breakfast consists of coffee and granola bars, oatmeal, or fruit. Bed was firm but comfortable. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded May 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2013</t>
+  </si>
+  <si>
+    <t>Room was very small but it was clean and quiet. Bring your own shampoo and hair dryer but an iron is provided. Breakfast consists of coffee and granola bars, oatmeal, or fruit. Bed was firm but comfortable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r160981951-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>160981951</t>
+  </si>
+  <si>
+    <t>05/17/2013</t>
+  </si>
+  <si>
+    <t>OK - Will stay there again</t>
+  </si>
+  <si>
+    <t>Of several places in the area that I have stayed in the last 7 months, this one is the quietest, except for one occasion when an idiot outside my window fired up his vroom vroom rod and blasted his radio waking me up. Other than that, the bed was clean and comfortable. The room was clean but nothing fancy. If you're on a lower floor, you can hear people walking around abov you. Fortunately, for me this time, it wasn't much of an issue. The TV kept flipping from wide screen to full screen. I don't know what is up with that.  I don't like the idea that the hotel taxes are 15%, which is almost double everywhere else I have been staying in the area. Don't expect much from the grab and fo breakfast. There isn't much to grab. You'd be better off going and grabbing something somewhere else. That being said, I will probably stay here again. There is no restaurant and I don't know if there is a fitness center or not.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded May 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2013</t>
+  </si>
+  <si>
+    <t>Of several places in the area that I have stayed in the last 7 months, this one is the quietest, except for one occasion when an idiot outside my window fired up his vroom vroom rod and blasted his radio waking me up. Other than that, the bed was clean and comfortable. The room was clean but nothing fancy. If you're on a lower floor, you can hear people walking around abov you. Fortunately, for me this time, it wasn't much of an issue. The TV kept flipping from wide screen to full screen. I don't know what is up with that.  I don't like the idea that the hotel taxes are 15%, which is almost double everywhere else I have been staying in the area. Don't expect much from the grab and fo breakfast. There isn't much to grab. You'd be better off going and grabbing something somewhere else. That being said, I will probably stay here again. There is no restaurant and I don't know if there is a fitness center or not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r160568232-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>160568232</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Extended Stay America Long Beach - Good Hotel</t>
+  </si>
+  <si>
+    <t>We ended up staying here for 2+ weeks in May 2013 - the front desk staff were great, the room was nice and clean, beds were good. Kitchen fit-out (pots, crockery, etc) was serviceable. Room was very quiet - never heard any planes taking off. The second time we stayed had a 'difficult' person doing a phone reservation but that's going to happen sometimes.We definitely would stay there again if we were in that part of Long Beach.MoreShow less</t>
+  </si>
+  <si>
+    <t>We ended up staying here for 2+ weeks in May 2013 - the front desk staff were great, the room was nice and clean, beds were good. Kitchen fit-out (pots, crockery, etc) was serviceable. Room was very quiet - never heard any planes taking off. The second time we stayed had a 'difficult' person doing a phone reservation but that's going to happen sometimes.We definitely would stay there again if we were in that part of Long Beach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r159721316-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>159721316</t>
+  </si>
+  <si>
+    <t>05/05/2013</t>
+  </si>
+  <si>
+    <t>Noisy event center next door, rude staff</t>
+  </si>
+  <si>
+    <t>First off, my wife made reservations for this entire trip in her name. I happened to arrive 2 hours before she did. When I went to check in, the young guy at the front desk asked for my wife. I told her she will be in around 7 PM. He told me that I couldn't check-in since this reservation wasn't in my name. I wasn't pleased, at all. I waited until my wife arrived to check in. The very friendly lady at the counter apologized and noted there shouldn't have been an issue since the reservation wasn't prepaid. She implied it would have been as simple as changing the name and charging my card directly. (I even explained to the guy that the my wife and I have a joint credit card account and it's all the same money) 
+This episode started the night off to a rough start. Then as we were trying to get some rest, the Event Center next door was extremely loud and continued on after midnight. We couldn't rest from the bass of the music playing.
+The walls seem to be paper thin. The person in the room above us caused the ceiling to shake as they walked in their room. It didn't seem as if they were stomping.
+The "breakfast" is also a joke. It should be titled a snack bar. The oranges appeared to have had better days. The muffins were fair, but...First off, my wife made reservations for this entire trip in her name. I happened to arrive 2 hours before she did. When I went to check in, the young guy at the front desk asked for my wife. I told her she will be in around 7 PM. He told me that I couldn't check-in since this reservation wasn't in my name. I wasn't pleased, at all. I waited until my wife arrived to check in. The very friendly lady at the counter apologized and noted there shouldn't have been an issue since the reservation wasn't prepaid. She implied it would have been as simple as changing the name and charging my card directly. (I even explained to the guy that the my wife and I have a joint credit card account and it's all the same money) This episode started the night off to a rough start. Then as we were trying to get some rest, the Event Center next door was extremely loud and continued on after midnight. We couldn't rest from the bass of the music playing.The walls seem to be paper thin. The person in the room above us caused the ceiling to shake as they walked in their room. It didn't seem as if they were stomping.The "breakfast" is also a joke. It should be titled a snack bar. The oranges appeared to have had better days. The muffins were fair, but not enough for my family to get 2 each. If you have children, stay somewhere else. This hotel doesn't have a pool for them.The young lady at check-out encouraged us to write about our stay on TripAdvisor. So here we are!MoreShow less</t>
+  </si>
+  <si>
+    <t>First off, my wife made reservations for this entire trip in her name. I happened to arrive 2 hours before she did. When I went to check in, the young guy at the front desk asked for my wife. I told her she will be in around 7 PM. He told me that I couldn't check-in since this reservation wasn't in my name. I wasn't pleased, at all. I waited until my wife arrived to check in. The very friendly lady at the counter apologized and noted there shouldn't have been an issue since the reservation wasn't prepaid. She implied it would have been as simple as changing the name and charging my card directly. (I even explained to the guy that the my wife and I have a joint credit card account and it's all the same money) 
+This episode started the night off to a rough start. Then as we were trying to get some rest, the Event Center next door was extremely loud and continued on after midnight. We couldn't rest from the bass of the music playing.
+The walls seem to be paper thin. The person in the room above us caused the ceiling to shake as they walked in their room. It didn't seem as if they were stomping.
+The "breakfast" is also a joke. It should be titled a snack bar. The oranges appeared to have had better days. The muffins were fair, but...First off, my wife made reservations for this entire trip in her name. I happened to arrive 2 hours before she did. When I went to check in, the young guy at the front desk asked for my wife. I told her she will be in around 7 PM. He told me that I couldn't check-in since this reservation wasn't in my name. I wasn't pleased, at all. I waited until my wife arrived to check in. The very friendly lady at the counter apologized and noted there shouldn't have been an issue since the reservation wasn't prepaid. She implied it would have been as simple as changing the name and charging my card directly. (I even explained to the guy that the my wife and I have a joint credit card account and it's all the same money) This episode started the night off to a rough start. Then as we were trying to get some rest, the Event Center next door was extremely loud and continued on after midnight. We couldn't rest from the bass of the music playing.The walls seem to be paper thin. The person in the room above us caused the ceiling to shake as they walked in their room. It didn't seem as if they were stomping.The "breakfast" is also a joke. It should be titled a snack bar. The oranges appeared to have had better days. The muffins were fair, but not enough for my family to get 2 each. If you have children, stay somewhere else. This hotel doesn't have a pool for them.The young lady at check-out encouraged us to write about our stay on TripAdvisor. So here we are!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r158333369-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>158333369</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>Friendly and very willing to assist you</t>
+  </si>
+  <si>
+    <t>Morning and afternoon staff was friendly and acomodating.  The late night staff was left to be desired.  My check in was after 11:30 and I was not greeted by a friendly smile like the morning staff.  My room was surprisingly big.  Fairly clean and descent. The location is very convenient.  405 close and everything that you want to do in Long Beach is a car ride or cab ride away.  Things that could be improved:  The bed was a little too firm for me.  Sheets could've been a little better.  What is up with hotels now a days skimping on their sheets.  And that's with any hotel.  The fridge was noisy and didn't really keep anything cold. But that was the only thing that was noisy.  You can't hear the planes at the airport or the freeway, having both of them be very close. The other thing that I wish could've been improved, was that the stairs and hallways weren't very clean.  The stairway looked like they havent been cleaned/mopped in a while, various pieces of trash I saw the whole time during my 3 day stay.   Overall stay was good, and the hotel did the job that it needed to.  Nice place to stay, at a good price.   I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded April 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2013</t>
+  </si>
+  <si>
+    <t>Morning and afternoon staff was friendly and acomodating.  The late night staff was left to be desired.  My check in was after 11:30 and I was not greeted by a friendly smile like the morning staff.  My room was surprisingly big.  Fairly clean and descent. The location is very convenient.  405 close and everything that you want to do in Long Beach is a car ride or cab ride away.  Things that could be improved:  The bed was a little too firm for me.  Sheets could've been a little better.  What is up with hotels now a days skimping on their sheets.  And that's with any hotel.  The fridge was noisy and didn't really keep anything cold. But that was the only thing that was noisy.  You can't hear the planes at the airport or the freeway, having both of them be very close. The other thing that I wish could've been improved, was that the stairs and hallways weren't very clean.  The stairway looked like they havent been cleaned/mopped in a while, various pieces of trash I saw the whole time during my 3 day stay.   Overall stay was good, and the hotel did the job that it needed to.  Nice place to stay, at a good price.   I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r156902661-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>156902661</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>Great staff and accommodations</t>
+  </si>
+  <si>
+    <t>Front desk was so helpful, friendly, and great to speak with. Room was clean and very comfortable. Since I read this one was near an airport I expected lots more noise during the night....must have used great insulation and noise reduction materials. The price was very reasonable. The only down side was the selection and availability of TV channels....that feature needs improvement. I would certainly consider staying again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded April 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2013</t>
+  </si>
+  <si>
+    <t>Front desk was so helpful, friendly, and great to speak with. Room was clean and very comfortable. Since I read this one was near an airport I expected lots more noise during the night....must have used great insulation and noise reduction materials. The price was very reasonable. The only down side was the selection and availability of TV channels....that feature needs improvement. I would certainly consider staying again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r156301800-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>156301800</t>
+  </si>
+  <si>
+    <t>04/01/2013</t>
+  </si>
+  <si>
+    <t>Willingness to Assit &amp; warm friendly welcome</t>
+  </si>
+  <si>
+    <t>OMG my stay here is always so wonderful what keeps me coming back is the wonderful managment that this establishment displays the staff is outstanding which is just only a reflection of their manager Mitch. When you find a manager that jumps right in and takes care of things himself instead of designating the work to his staff you have really found a manager that has a passion for what he does. Thanks for making my stay always so delightfulMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded April 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2013</t>
+  </si>
+  <si>
+    <t>OMG my stay here is always so wonderful what keeps me coming back is the wonderful managment that this establishment displays the staff is outstanding which is just only a reflection of their manager Mitch. When you find a manager that jumps right in and takes care of things himself instead of designating the work to his staff you have really found a manager that has a passion for what he does. Thanks for making my stay always so delightfulMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r153986323-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>153986323</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>Feel at home when you you are on the go.</t>
+  </si>
+  <si>
+    <t>We all have multiple choices when we pick a hotel. It is always much more pleasant when you have great hotel employees and a comfortable room in a very convenient location. I have been a guest at this location for many years. So when you check in be sure and say hello to Mitch (mgr.) Front desk folks.....Ericka.Kyle,Joseph,SergioMoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded March 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2013</t>
+  </si>
+  <si>
+    <t>We all have multiple choices when we pick a hotel. It is always much more pleasant when you have great hotel employees and a comfortable room in a very convenient location. I have been a guest at this location for many years. So when you check in be sure and say hello to Mitch (mgr.) Front desk folks.....Ericka.Kyle,Joseph,SergioMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r152599604-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>152599604</t>
+  </si>
+  <si>
+    <t>02/20/2013</t>
+  </si>
+  <si>
+    <t>I chose well !</t>
+  </si>
+  <si>
+    <t>My stay at ESA in Long Beach for only two nights was part of a whirlwind trip to visit a friend and see a bit of Long Beach.   I prefer this type of accommodation with its kitchen facilities so I can make tea or heat up a bit of food without going out for every meal.  I was traveling with my small dog and the $25.00 additional fee was well worth it for the good service and very clean room.  The staff- both front desk and room service workers, etc. were both efficient and pleasant - exceptional for this day and age.  The front grounds were attractive with some grass and flowers and a well-lit parking lot was welcoming as I arrived after dark.   A fresh pastry or muffin for that " grab and go " breakfast instead of the chemical-laced one would be an improvement, however the good fresh coffee in the morning made up for it.   I'll be back  !MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded February 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2013</t>
+  </si>
+  <si>
+    <t>My stay at ESA in Long Beach for only two nights was part of a whirlwind trip to visit a friend and see a bit of Long Beach.   I prefer this type of accommodation with its kitchen facilities so I can make tea or heat up a bit of food without going out for every meal.  I was traveling with my small dog and the $25.00 additional fee was well worth it for the good service and very clean room.  The staff- both front desk and room service workers, etc. were both efficient and pleasant - exceptional for this day and age.  The front grounds were attractive with some grass and flowers and a well-lit parking lot was welcoming as I arrived after dark.   A fresh pastry or muffin for that " grab and go " breakfast instead of the chemical-laced one would be an improvement, however the good fresh coffee in the morning made up for it.   I'll be back  !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r152214048-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>152214048</t>
+  </si>
+  <si>
+    <t>02/15/2013</t>
+  </si>
+  <si>
+    <t>My recent stay at Extended Stay</t>
+  </si>
+  <si>
+    <t>I stay at the Long Beach facility regularly.   I am always impressed by the genuine courtesy afforded me by the knowledgeable and efficient staff.  They truly go above and beyond to make me feel at home.  It is very apparent that the team at the facility has embraced a culture of service.  The facility is more than adequate, but it is the staff that makes the experience a pleasure.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2013</t>
+  </si>
+  <si>
+    <t>I stay at the Long Beach facility regularly.   I am always impressed by the genuine courtesy afforded me by the knowledgeable and efficient staff.  They truly go above and beyond to make me feel at home.  It is very apparent that the team at the facility has embraced a culture of service.  The facility is more than adequate, but it is the staff that makes the experience a pleasure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r148563496-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>148563496</t>
+  </si>
+  <si>
+    <t>01/01/2013</t>
+  </si>
+  <si>
+    <t>Almost everything fine</t>
+  </si>
+  <si>
+    <t>Well.. The room was fine also the attention in the reception, I was disappointed  about the breakfast it was like a joke.  It were served in a small table just in front the reception and they were just couple of apples in a bad condition, not the outside but the inside, muffin and few snack. Something to think about it, if you like to have a good breakfast just like me.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded January 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2013</t>
+  </si>
+  <si>
+    <t>Well.. The room was fine also the attention in the reception, I was disappointed  about the breakfast it was like a joke.  It were served in a small table just in front the reception and they were just couple of apples in a bad condition, not the outside but the inside, muffin and few snack. Something to think about it, if you like to have a good breakfast just like me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r147760854-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>147760854</t>
+  </si>
+  <si>
+    <t>12/19/2012</t>
+  </si>
+  <si>
+    <t>Frequent Stayer</t>
+  </si>
+  <si>
+    <t>I have stayed here for several trips over the last three months. Great location, near shopping, reastuarants, airport, and freeway.  30 minutes from Disneyland, 30 minutes from downtown LA. Place has always been quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded December 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed here for several trips over the last three months. Great location, near shopping, reastuarants, airport, and freeway.  30 minutes from Disneyland, 30 minutes from downtown LA. Place has always been quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r147757072-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>147757072</t>
+  </si>
+  <si>
+    <t>Extended Stay America Long Beach</t>
+  </si>
+  <si>
+    <t>Our company first started  using the Extended Stay Of America Long Beach in early 2011 to present. We are extremely impresssed with the facility and especially the staff! We would especially like to mention Essy, Kyle,Erika and the new manager Mitch. They have all met our needs and requests immediately and with professionalism.J.Rodriguez Marine HealthcareMoreShow less</t>
+  </si>
+  <si>
+    <t>Our company first started  using the Extended Stay Of America Long Beach in early 2011 to present. We are extremely impresssed with the facility and especially the staff! We would especially like to mention Essy, Kyle,Erika and the new manager Mitch. They have all met our needs and requests immediately and with professionalism.J.Rodriguez Marine HealthcareMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r142253851-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>142253851</t>
+  </si>
+  <si>
+    <t>10/07/2012</t>
+  </si>
+  <si>
+    <t>Great location but it smelled like a pet</t>
+  </si>
+  <si>
+    <t>It would have been a good value but the room smelled like pet urine and they said they had no other rooms. It was difficult to sleep. The mattress comfort was average and at least it was spacious. Most if the staff were curtious. Would never go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded October 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2012</t>
+  </si>
+  <si>
+    <t>It would have been a good value but the room smelled like pet urine and they said they had no other rooms. It was difficult to sleep. The mattress comfort was average and at least it was spacious. Most if the staff were curtious. Would never go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r136865864-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>136865864</t>
+  </si>
+  <si>
+    <t>08/10/2012</t>
+  </si>
+  <si>
+    <t>NOT RECOMMENDED</t>
+  </si>
+  <si>
+    <t>Would never recommend this hotel to anyone!! Although the rooms were clean, the entire hotel had this scary feeling. Hallway lights are dim and spooky. If you walk the hallways you might just be snatched. They never changed the bed sheets. NO POOL, we have to take out our own trash and there is no lobby with comfortable couches for guests to sit and relax. Hotel staff were rude with the exception of one by the name of Ency (I think is her name). Are you kidding me...NO BREAKFAST!!!! Not even complimentary coffee or water/juices throughout the day!!!! We asked for xtra towels and were told we had to bring back our used ones. When we called for tissue we had to come get it ourselves.  TERRIBLE, TERRIBLE STAY!!!  Would never stay here again not especially for the price we paid. Seriously downgraded our stay from our previous hotel which was only at $76.00MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded October 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2012</t>
+  </si>
+  <si>
+    <t>Would never recommend this hotel to anyone!! Although the rooms were clean, the entire hotel had this scary feeling. Hallway lights are dim and spooky. If you walk the hallways you might just be snatched. They never changed the bed sheets. NO POOL, we have to take out our own trash and there is no lobby with comfortable couches for guests to sit and relax. Hotel staff were rude with the exception of one by the name of Ency (I think is her name). Are you kidding me...NO BREAKFAST!!!! Not even complimentary coffee or water/juices throughout the day!!!! We asked for xtra towels and were told we had to bring back our used ones. When we called for tissue we had to come get it ourselves.  TERRIBLE, TERRIBLE STAY!!!  Would never stay here again not especially for the price we paid. Seriously downgraded our stay from our previous hotel which was only at $76.00More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r132260313-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>132260313</t>
+  </si>
+  <si>
+    <t>06/18/2012</t>
+  </si>
+  <si>
+    <t>Exceptionally Clean</t>
+  </si>
+  <si>
+    <t>Stayed overnite, very pleased that is was so clean. The that staff was awesone too. Looking foward to staying again, hopefully for more than 1 nite.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - Long Beach Airport, responded to this reviewResponded July 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2012</t>
+  </si>
+  <si>
+    <t>Stayed overnite, very pleased that is was so clean. The that staff was awesone too. Looking foward to staying again, hopefully for more than 1 nite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r124286992-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>124286992</t>
+  </si>
+  <si>
+    <t>02/07/2012</t>
+  </si>
+  <si>
+    <t>Don't stop here</t>
+  </si>
+  <si>
+    <t>My husband &amp; I had to live here d/t my nursing agency put us up here for 6 months. Unfriendly staff, esp on the evening shift.  They tried to accommodate us, but the bugs were the worst. They had to keep changing our mattress for us to make it more comfortable to sleep on. After 3 months I upgraded to a deluxe suite, d/t a live in guy next to us on bottom floor smoking in a non-smoking room &amp; screaming all hours of the night every night.  They offer nothing but a large laundry room.  My husband is hard of hearing so he talks loud. On HIM they called the cops, but not the guy living next to us screaming every night about wanting to kill himself!!! They have a serious ant problem at this hotel. We had to go back a year later to a conference &amp; were put up at this same hotel. Ant problems still existed.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>My husband &amp; I had to live here d/t my nursing agency put us up here for 6 months. Unfriendly staff, esp on the evening shift.  They tried to accommodate us, but the bugs were the worst. They had to keep changing our mattress for us to make it more comfortable to sleep on. After 3 months I upgraded to a deluxe suite, d/t a live in guy next to us on bottom floor smoking in a non-smoking room &amp; screaming all hours of the night every night.  They offer nothing but a large laundry room.  My husband is hard of hearing so he talks loud. On HIM they called the cops, but not the guy living next to us screaming every night about wanting to kill himself!!! They have a serious ant problem at this hotel. We had to go back a year later to a conference &amp; were put up at this same hotel. Ant problems still existed.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2628,5665 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>165</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>174</v>
+      </c>
+      <c r="X16" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>108</v>
+      </c>
+      <c r="O17" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>182</v>
+      </c>
+      <c r="X17" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>190</v>
+      </c>
+      <c r="X18" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s">
+        <v>197</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>148</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>198</v>
+      </c>
+      <c r="X19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>165</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>206</v>
+      </c>
+      <c r="X20" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" t="s">
+        <v>212</v>
+      </c>
+      <c r="L21" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>165</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>214</v>
+      </c>
+      <c r="X21" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K22" t="s">
+        <v>220</v>
+      </c>
+      <c r="L22" t="s">
+        <v>221</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>165</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>222</v>
+      </c>
+      <c r="X22" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>226</v>
+      </c>
+      <c r="J23" t="s">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s">
+        <v>228</v>
+      </c>
+      <c r="L23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>230</v>
+      </c>
+      <c r="O23" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>231</v>
+      </c>
+      <c r="X23" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" t="s">
+        <v>236</v>
+      </c>
+      <c r="K24" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>230</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>239</v>
+      </c>
+      <c r="X24" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>243</v>
+      </c>
+      <c r="J25" t="s">
+        <v>244</v>
+      </c>
+      <c r="K25" t="s">
+        <v>245</v>
+      </c>
+      <c r="L25" t="s">
+        <v>246</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>247</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>248</v>
+      </c>
+      <c r="X25" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>252</v>
+      </c>
+      <c r="J26" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26" t="s">
+        <v>254</v>
+      </c>
+      <c r="L26" t="s">
+        <v>255</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>256</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>257</v>
+      </c>
+      <c r="X26" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>260</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>261</v>
+      </c>
+      <c r="J27" t="s">
+        <v>262</v>
+      </c>
+      <c r="K27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L27" t="s">
+        <v>264</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>256</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>265</v>
+      </c>
+      <c r="X27" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>268</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>269</v>
+      </c>
+      <c r="J28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K28" t="s">
+        <v>271</v>
+      </c>
+      <c r="L28" t="s">
+        <v>272</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>273</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>274</v>
+      </c>
+      <c r="X28" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>277</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>278</v>
+      </c>
+      <c r="J29" t="s">
+        <v>279</v>
+      </c>
+      <c r="K29" t="s">
+        <v>280</v>
+      </c>
+      <c r="L29" t="s">
+        <v>281</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>282</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>283</v>
+      </c>
+      <c r="X29" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>286</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>287</v>
+      </c>
+      <c r="J30" t="s">
+        <v>288</v>
+      </c>
+      <c r="K30" t="s">
+        <v>289</v>
+      </c>
+      <c r="L30" t="s">
+        <v>290</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>291</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>292</v>
+      </c>
+      <c r="X30" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>295</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>296</v>
+      </c>
+      <c r="J31" t="s">
+        <v>297</v>
+      </c>
+      <c r="K31" t="s">
+        <v>298</v>
+      </c>
+      <c r="L31" t="s">
+        <v>299</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>300</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>301</v>
+      </c>
+      <c r="X31" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>304</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>305</v>
+      </c>
+      <c r="J32" t="s">
+        <v>306</v>
+      </c>
+      <c r="K32" t="s">
+        <v>307</v>
+      </c>
+      <c r="L32" t="s">
+        <v>308</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>309</v>
+      </c>
+      <c r="O32" t="s">
+        <v>109</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>310</v>
+      </c>
+      <c r="X32" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>314</v>
+      </c>
+      <c r="J33" t="s">
+        <v>315</v>
+      </c>
+      <c r="K33" t="s">
+        <v>316</v>
+      </c>
+      <c r="L33" t="s">
+        <v>317</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>309</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>319</v>
+      </c>
+      <c r="J34" t="s">
+        <v>320</v>
+      </c>
+      <c r="K34" t="s">
+        <v>321</v>
+      </c>
+      <c r="L34" t="s">
+        <v>322</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>323</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>324</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>325</v>
+      </c>
+      <c r="J35" t="s">
+        <v>326</v>
+      </c>
+      <c r="K35" t="s">
+        <v>327</v>
+      </c>
+      <c r="L35" t="s">
+        <v>328</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>329</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>331</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>332</v>
+      </c>
+      <c r="J36" t="s">
+        <v>333</v>
+      </c>
+      <c r="K36" t="s">
+        <v>334</v>
+      </c>
+      <c r="L36" t="s">
+        <v>335</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>336</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>337</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>338</v>
+      </c>
+      <c r="J37" t="s">
+        <v>339</v>
+      </c>
+      <c r="K37" t="s">
+        <v>340</v>
+      </c>
+      <c r="L37" t="s">
+        <v>341</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>342</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>343</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>344</v>
+      </c>
+      <c r="J38" t="s">
+        <v>345</v>
+      </c>
+      <c r="K38" t="s">
+        <v>346</v>
+      </c>
+      <c r="L38" t="s">
+        <v>347</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>348</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>350</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>351</v>
+      </c>
+      <c r="J39" t="s">
+        <v>352</v>
+      </c>
+      <c r="K39" t="s">
+        <v>353</v>
+      </c>
+      <c r="L39" t="s">
+        <v>354</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>348</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>355</v>
+      </c>
+      <c r="X39" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>358</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>359</v>
+      </c>
+      <c r="J40" t="s">
+        <v>360</v>
+      </c>
+      <c r="K40" t="s">
+        <v>361</v>
+      </c>
+      <c r="L40" t="s">
+        <v>362</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>363</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>364</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>365</v>
+      </c>
+      <c r="J41" t="s">
+        <v>366</v>
+      </c>
+      <c r="K41" t="s">
+        <v>367</v>
+      </c>
+      <c r="L41" t="s">
+        <v>368</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>369</v>
+      </c>
+      <c r="O41" t="s">
+        <v>92</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>370</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>371</v>
+      </c>
+      <c r="J42" t="s">
+        <v>372</v>
+      </c>
+      <c r="K42" t="s">
+        <v>373</v>
+      </c>
+      <c r="L42" t="s">
+        <v>374</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>369</v>
+      </c>
+      <c r="O42" t="s">
+        <v>92</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>376</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>377</v>
+      </c>
+      <c r="J43" t="s">
+        <v>378</v>
+      </c>
+      <c r="K43" t="s">
+        <v>379</v>
+      </c>
+      <c r="L43" t="s">
+        <v>380</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>369</v>
+      </c>
+      <c r="O43" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>381</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>382</v>
+      </c>
+      <c r="J44" t="s">
+        <v>383</v>
+      </c>
+      <c r="K44" t="s">
+        <v>384</v>
+      </c>
+      <c r="L44" t="s">
+        <v>385</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>386</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>387</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>388</v>
+      </c>
+      <c r="J45" t="s">
+        <v>389</v>
+      </c>
+      <c r="K45" t="s">
+        <v>390</v>
+      </c>
+      <c r="L45" t="s">
+        <v>391</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>392</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>393</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>394</v>
+      </c>
+      <c r="J46" t="s">
+        <v>395</v>
+      </c>
+      <c r="K46" t="s">
+        <v>396</v>
+      </c>
+      <c r="L46" t="s">
+        <v>397</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>398</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>399</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>400</v>
+      </c>
+      <c r="J47" t="s">
+        <v>401</v>
+      </c>
+      <c r="K47" t="s">
+        <v>402</v>
+      </c>
+      <c r="L47" t="s">
+        <v>403</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>404</v>
+      </c>
+      <c r="X47" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>407</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>408</v>
+      </c>
+      <c r="J48" t="s">
+        <v>409</v>
+      </c>
+      <c r="K48" t="s">
+        <v>410</v>
+      </c>
+      <c r="L48" t="s">
+        <v>411</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>404</v>
+      </c>
+      <c r="X48" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>413</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>414</v>
+      </c>
+      <c r="J49" t="s">
+        <v>415</v>
+      </c>
+      <c r="K49" t="s">
+        <v>416</v>
+      </c>
+      <c r="L49" t="s">
+        <v>417</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>392</v>
+      </c>
+      <c r="O49" t="s">
+        <v>82</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>418</v>
+      </c>
+      <c r="X49" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>421</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>422</v>
+      </c>
+      <c r="J50" t="s">
+        <v>423</v>
+      </c>
+      <c r="K50" t="s">
+        <v>424</v>
+      </c>
+      <c r="L50" t="s">
+        <v>425</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>392</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>426</v>
+      </c>
+      <c r="X50" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>429</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>430</v>
+      </c>
+      <c r="J51" t="s">
+        <v>431</v>
+      </c>
+      <c r="K51" t="s">
+        <v>432</v>
+      </c>
+      <c r="L51" t="s">
+        <v>433</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>434</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>426</v>
+      </c>
+      <c r="X51" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>436</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>437</v>
+      </c>
+      <c r="J52" t="s">
+        <v>438</v>
+      </c>
+      <c r="K52" t="s">
+        <v>439</v>
+      </c>
+      <c r="L52" t="s">
+        <v>440</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>426</v>
+      </c>
+      <c r="X52" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>442</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>443</v>
+      </c>
+      <c r="J53" t="s">
+        <v>444</v>
+      </c>
+      <c r="K53" t="s">
+        <v>445</v>
+      </c>
+      <c r="L53" t="s">
+        <v>446</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>363</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>447</v>
+      </c>
+      <c r="X53" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>450</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>451</v>
+      </c>
+      <c r="J54" t="s">
+        <v>452</v>
+      </c>
+      <c r="K54" t="s">
+        <v>453</v>
+      </c>
+      <c r="L54" t="s">
+        <v>454</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>455</v>
+      </c>
+      <c r="X54" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>458</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>459</v>
+      </c>
+      <c r="J55" t="s">
+        <v>460</v>
+      </c>
+      <c r="K55" t="s">
+        <v>461</v>
+      </c>
+      <c r="L55" t="s">
+        <v>462</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>463</v>
+      </c>
+      <c r="O55" t="s">
+        <v>109</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>464</v>
+      </c>
+      <c r="X55" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>467</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>468</v>
+      </c>
+      <c r="J56" t="s">
+        <v>469</v>
+      </c>
+      <c r="K56" t="s">
+        <v>470</v>
+      </c>
+      <c r="L56" t="s">
+        <v>471</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>472</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>473</v>
+      </c>
+      <c r="X56" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>476</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>477</v>
+      </c>
+      <c r="J57" t="s">
+        <v>478</v>
+      </c>
+      <c r="K57" t="s">
+        <v>479</v>
+      </c>
+      <c r="L57" t="s">
+        <v>480</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>481</v>
+      </c>
+      <c r="O57" t="s">
+        <v>109</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>482</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>483</v>
+      </c>
+      <c r="J58" t="s">
+        <v>484</v>
+      </c>
+      <c r="K58" t="s">
+        <v>485</v>
+      </c>
+      <c r="L58" t="s">
+        <v>486</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>487</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>488</v>
+      </c>
+      <c r="X58" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>491</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>492</v>
+      </c>
+      <c r="J59" t="s">
+        <v>493</v>
+      </c>
+      <c r="K59" t="s">
+        <v>494</v>
+      </c>
+      <c r="L59" t="s">
+        <v>495</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>496</v>
+      </c>
+      <c r="O59" t="s">
+        <v>109</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>498</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>499</v>
+      </c>
+      <c r="J60" t="s">
+        <v>500</v>
+      </c>
+      <c r="K60" t="s">
+        <v>501</v>
+      </c>
+      <c r="L60" t="s">
+        <v>502</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>503</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>504</v>
+      </c>
+      <c r="J61" t="s">
+        <v>505</v>
+      </c>
+      <c r="K61" t="s">
+        <v>506</v>
+      </c>
+      <c r="L61" t="s">
+        <v>507</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>508</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>509</v>
+      </c>
+      <c r="J62" t="s">
+        <v>510</v>
+      </c>
+      <c r="K62" t="s">
+        <v>511</v>
+      </c>
+      <c r="L62" t="s">
+        <v>512</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>513</v>
+      </c>
+      <c r="O62" t="s">
+        <v>109</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>514</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>515</v>
+      </c>
+      <c r="J63" t="s">
+        <v>516</v>
+      </c>
+      <c r="K63" t="s">
+        <v>517</v>
+      </c>
+      <c r="L63" t="s">
+        <v>518</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>519</v>
+      </c>
+      <c r="O63" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>520</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>521</v>
+      </c>
+      <c r="J64" t="s">
+        <v>522</v>
+      </c>
+      <c r="K64" t="s">
+        <v>523</v>
+      </c>
+      <c r="L64" t="s">
+        <v>524</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>525</v>
+      </c>
+      <c r="X64" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>528</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>529</v>
+      </c>
+      <c r="J65" t="s">
+        <v>530</v>
+      </c>
+      <c r="K65" t="s">
+        <v>531</v>
+      </c>
+      <c r="L65" t="s">
+        <v>532</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>519</v>
+      </c>
+      <c r="O65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>525</v>
+      </c>
+      <c r="X65" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>534</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>535</v>
+      </c>
+      <c r="J66" t="s">
+        <v>536</v>
+      </c>
+      <c r="K66" t="s">
+        <v>537</v>
+      </c>
+      <c r="L66" t="s">
+        <v>538</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>539</v>
+      </c>
+      <c r="O66" t="s">
+        <v>92</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>525</v>
+      </c>
+      <c r="X66" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>541</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>542</v>
+      </c>
+      <c r="J67" t="s">
+        <v>543</v>
+      </c>
+      <c r="K67" t="s">
+        <v>544</v>
+      </c>
+      <c r="L67" t="s">
+        <v>545</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>546</v>
+      </c>
+      <c r="O67" t="s">
+        <v>82</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>547</v>
+      </c>
+      <c r="X67" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>550</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>551</v>
+      </c>
+      <c r="J68" t="s">
+        <v>552</v>
+      </c>
+      <c r="K68" t="s">
+        <v>553</v>
+      </c>
+      <c r="L68" t="s">
+        <v>554</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>555</v>
+      </c>
+      <c r="O68" t="s">
+        <v>82</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>556</v>
+      </c>
+      <c r="X68" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>559</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>560</v>
+      </c>
+      <c r="J69" t="s">
+        <v>561</v>
+      </c>
+      <c r="K69" t="s">
+        <v>562</v>
+      </c>
+      <c r="L69" t="s">
+        <v>563</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>564</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>565</v>
+      </c>
+      <c r="X69" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>568</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>569</v>
+      </c>
+      <c r="J70" t="s">
+        <v>570</v>
+      </c>
+      <c r="K70" t="s">
+        <v>571</v>
+      </c>
+      <c r="L70" t="s">
+        <v>572</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>573</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>574</v>
+      </c>
+      <c r="X70" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>577</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>578</v>
+      </c>
+      <c r="J71" t="s">
+        <v>579</v>
+      </c>
+      <c r="K71" t="s">
+        <v>580</v>
+      </c>
+      <c r="L71" t="s">
+        <v>581</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>573</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>582</v>
+      </c>
+      <c r="X71" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>585</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>586</v>
+      </c>
+      <c r="J72" t="s">
+        <v>587</v>
+      </c>
+      <c r="K72" t="s">
+        <v>588</v>
+      </c>
+      <c r="L72" t="s">
+        <v>589</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>573</v>
+      </c>
+      <c r="O72" t="s">
+        <v>82</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>582</v>
+      </c>
+      <c r="X72" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>591</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>592</v>
+      </c>
+      <c r="J73" t="s">
+        <v>593</v>
+      </c>
+      <c r="K73" t="s">
+        <v>594</v>
+      </c>
+      <c r="L73" t="s">
+        <v>595</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>573</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>597</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>598</v>
+      </c>
+      <c r="J74" t="s">
+        <v>599</v>
+      </c>
+      <c r="K74" t="s">
+        <v>600</v>
+      </c>
+      <c r="L74" t="s">
+        <v>601</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>513</v>
+      </c>
+      <c r="O74" t="s">
+        <v>109</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>602</v>
+      </c>
+      <c r="X74" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>605</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>606</v>
+      </c>
+      <c r="J75" t="s">
+        <v>607</v>
+      </c>
+      <c r="K75" t="s">
+        <v>608</v>
+      </c>
+      <c r="L75" t="s">
+        <v>609</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>513</v>
+      </c>
+      <c r="O75" t="s">
+        <v>109</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>610</v>
+      </c>
+      <c r="X75" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>613</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>614</v>
+      </c>
+      <c r="J76" t="s">
+        <v>615</v>
+      </c>
+      <c r="K76" t="s">
+        <v>616</v>
+      </c>
+      <c r="L76" t="s">
+        <v>617</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>618</v>
+      </c>
+      <c r="O76" t="s">
+        <v>109</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>619</v>
+      </c>
+      <c r="X76" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>622</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>623</v>
+      </c>
+      <c r="J77" t="s">
+        <v>624</v>
+      </c>
+      <c r="K77" t="s">
+        <v>625</v>
+      </c>
+      <c r="L77" t="s">
+        <v>626</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>618</v>
+      </c>
+      <c r="O77" t="s">
+        <v>63</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>627</v>
+      </c>
+      <c r="X77" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>630</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>631</v>
+      </c>
+      <c r="J78" t="s">
+        <v>632</v>
+      </c>
+      <c r="K78" t="s">
+        <v>633</v>
+      </c>
+      <c r="L78" t="s">
+        <v>634</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>635</v>
+      </c>
+      <c r="O78" t="s">
+        <v>109</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>636</v>
+      </c>
+      <c r="X78" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>639</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>640</v>
+      </c>
+      <c r="J79" t="s">
+        <v>641</v>
+      </c>
+      <c r="K79" t="s">
+        <v>642</v>
+      </c>
+      <c r="L79" t="s">
+        <v>643</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>635</v>
+      </c>
+      <c r="O79" t="s">
+        <v>63</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>644</v>
+      </c>
+      <c r="X79" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>647</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>648</v>
+      </c>
+      <c r="J80" t="s">
+        <v>649</v>
+      </c>
+      <c r="K80" t="s">
+        <v>650</v>
+      </c>
+      <c r="L80" t="s">
+        <v>651</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>652</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>653</v>
+      </c>
+      <c r="X80" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>656</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>657</v>
+      </c>
+      <c r="J81" t="s">
+        <v>658</v>
+      </c>
+      <c r="K81" t="s">
+        <v>659</v>
+      </c>
+      <c r="L81" t="s">
+        <v>660</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>652</v>
+      </c>
+      <c r="O81" t="s">
+        <v>63</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>661</v>
+      </c>
+      <c r="X81" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>664</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>665</v>
+      </c>
+      <c r="J82" t="s">
+        <v>658</v>
+      </c>
+      <c r="K82" t="s">
+        <v>666</v>
+      </c>
+      <c r="L82" t="s">
+        <v>667</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>652</v>
+      </c>
+      <c r="O82" t="s">
+        <v>63</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>661</v>
+      </c>
+      <c r="X82" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>669</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>670</v>
+      </c>
+      <c r="J83" t="s">
+        <v>671</v>
+      </c>
+      <c r="K83" t="s">
+        <v>672</v>
+      </c>
+      <c r="L83" t="s">
+        <v>673</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>674</v>
+      </c>
+      <c r="X83" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>677</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>678</v>
+      </c>
+      <c r="J84" t="s">
+        <v>679</v>
+      </c>
+      <c r="K84" t="s">
+        <v>680</v>
+      </c>
+      <c r="L84" t="s">
+        <v>681</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>682</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>683</v>
+      </c>
+      <c r="X84" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>686</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>687</v>
+      </c>
+      <c r="J85" t="s">
+        <v>688</v>
+      </c>
+      <c r="K85" t="s">
+        <v>689</v>
+      </c>
+      <c r="L85" t="s">
+        <v>690</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>691</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>692</v>
+      </c>
+      <c r="X85" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>35637</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>695</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>696</v>
+      </c>
+      <c r="J86" t="s">
+        <v>697</v>
+      </c>
+      <c r="K86" t="s">
+        <v>698</v>
+      </c>
+      <c r="L86" t="s">
+        <v>699</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>700</v>
+      </c>
+      <c r="O86" t="s">
+        <v>63</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>701</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_258.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_258.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="787">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>RBlecha</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Our room was nice and clean, so basically we were happy with our stay. The only inconveniences were that this hotel has problems logging on to their free WiFi with more than one device. We had 6 devices needing WiFi so we had to call tech support to get the connections. Their vending machines were mostly empty and we couldn’t get them to work anyway. The staff was very friendly and helpful. More</t>
   </si>
   <si>
+    <t>maddrecords</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r552137173-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>My experience was nice comforting and peaceful! Reservations accurate, room lighting great, location from conference close. And I received all the utensils to cook my food. And the staff was willing to help, and kind.More</t>
   </si>
   <si>
+    <t>579cjsims</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r547011085-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>No room service unless you stay over 7 days. No hangers in the room unless asked for. Grab n go breakfast was coffee, granola bars and instant oatmeal.  Located very close to Long Beach Airport and directly across from the police department. More</t>
   </si>
   <si>
+    <t>Daina Defiant W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r530834615-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t>First the kitchen stuff wasnt there the sink had a baby roach that came out the utensil box they send up to the room ...the bathroom tub had pet in it .didnt like how dusty the everything was.under the kitchen was dirty napkins from the previous guest not clean.More</t>
   </si>
   <si>
+    <t>Gian Luca V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r512568163-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -306,6 +321,9 @@
     <t>U know men and women, guys and girls, for me Los Angeles is Long Beach. Those beautiful colored houses on the little harbor (little?), the town full of shops and rests, Queen Mary staring at you ruthlessly. Extended Stay America is a good chain of hotel. I visited the one in Long Beach. No competitors with Italian one which are costly and often without attention to the client. There, always, customers are kings. So get there and have a look. You will be on the game. More</t>
   </si>
   <si>
+    <t>collinz304</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r512291498-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t>Very good room, friendly staff, good location.  Breakfast was very light but there's a diner up the street with large portions and reasonable prices.  Room was comfortable and clean.  Plenty of parking was available.More</t>
   </si>
   <si>
+    <t>stephenfC7022TG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r506952119-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -357,6 +378,9 @@
     <t>The shower didn't work at all and no maintenance person was on duty at night.  There was no wake-up call service.  The "grab and go" breakfast was paltry.  The manager did give me a 25% reduction on my room as a result of the shower being non-operational and I appreciated that. There were some sort of disreputable looking carriers, looking almost like transients, hanging around the lobby when I checked in and the vibe was creepy.More</t>
   </si>
   <si>
+    <t>coletted886</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r506365200-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -381,6 +405,9 @@
     <t>Pet hair everywhere including kitchen counters and all corners of floors. They call a granola bar with black coffee breakfast! You have to "purchase" plates, silverware etc if you want an equipped kitchen.More</t>
   </si>
   <si>
+    <t>kristic779</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r505286537-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -405,6 +432,9 @@
     <t>The workers were great. It was the room it self that was gross. Fan had not been cleaned in probably a year. Beds were terrible and couch bed omg was probably 50 years old total springs. And there were no sheets it was just a matress. The room felt dark even when all the lights were on. And I the window did not have a sheer curtain only a blackout one. So if you wanted sun light all the people in the parking lot could see inside your room. We were ground level. They say a breakfast is included but it was pretty lame. Grain bar or muffin. No fruit but coffee was good. Overall. Would never recommend it or ever stay there again. Motel 6 is a better option. More</t>
   </si>
   <si>
+    <t>LoveCali4nia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r504408822-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -429,6 +459,9 @@
     <t>I really wanted to like this place, BUT it was dirty!  I paid an extra $25 a night in a non refundable pet charge.  I wish they would use the money to clean the dog poo in the front or the garbage in the back by the dumpster.  The carpet in the front &amp; hallways was dirty &amp; stained.  The day before I left I found a flea on my white slipped!  :/   Good thing my dog has been treated with Advantage II.  I have been checking him daily for fleas since I discovered the pest.  I am guessing staff could clean up the cigarettes, beer bottles &amp; garbage only to have to clean it up all over again.  The staff was pleasant &amp; helpful.  Another guest &amp; I needed to do laundry &amp; someone forget to get their wash out.  I waited over an hour.  Lucky for me the other guest asked the front dest staff about it &amp; she removed it for us.  The rooms are big with a mini kitchen.  There is a large refrigerator, 2 burner cooktop, sink, microwave, &amp; plenty of cupboard space.  They provide dishes &amp; cookware &amp; even a little cookbook that features Sunny Anderson.  Again I wanted to LIKE this place, BUT JUST CAN NOT.More</t>
   </si>
   <si>
+    <t>Wmmadar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r504214136-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -447,6 +480,9 @@
     <t>Question... if I have a family of 5 and we have 2 towels in the bathroom how is it at all possible that when we go to the front desk and ask for more towels we were told by the lady in purple... I just started doing laundry so I don't have any....?? Guys were out in the parking lot like the other review said. It was dark and creepy. Slow drain in the bathtub...here's why I won't recommend this hotel... the door lock bolt would not lock. Too late to change rooms and if I can't get towels why would they bother with fixing a lock. More</t>
   </si>
   <si>
+    <t>Magdalena M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r504004539-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -474,6 +510,9 @@
     <t>: (  I difinitely do not staying  again or recomended this hotel the room smell bud  carpet have stains is  very dirty, Bugs in the restroom, Their free breakfast was some old Caffè with muffins that sad out.More</t>
   </si>
   <si>
+    <t>eldreyes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r501934665-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -498,6 +537,9 @@
     <t>First impressions says a lot. The room I stayed at needs an update.  The toilet bowl was dirty. The bed squeaks and sheet had small black ink stains. The carpet was not vacuumed.  The front desk people are not great ambassadors for this property. There's no pride to what they do. They are in need of some guest relations training. The stair railing is broken, there's a sign on the wall to be careful. What the heck? Why not get it fixed right away instead? Breakfast to go is coffee and granola bar. Really? I'd go someplace else where I would feel more welcome. Did it feel like home away from home-NO-not at all. No quality control at this place. More</t>
   </si>
   <si>
+    <t>mdtyper56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r500297256-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -525,6 +567,9 @@
     <t>The hotel is a good location, actually across the street from the Police station, but, the room and hallways smelled damp moldy.  Had a kitchenette which was great except you need to get utensils etc from the front desk - none available the entire week i was there. Never felt safe- in the halls walking from my room to elevator and reveresed - could not get clean towels all week- checked in on monday and left friday morning at 3 am - every day was told to check next day for towels.  Complimentary breakfast was tiny muffins, coffee (no sugar or sugar replacer one day) and granola bars. OH and they were pet friendly which I am all for, BUT huge dog in the room across from mine that barked all night long. I requested a ground floor room close to the entrance, received the farthest room from the elevator on the second floorMore</t>
   </si>
   <si>
+    <t>239lesiar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r499566782-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -549,6 +594,9 @@
     <t>Well i chose this Hotel because it makes me feel like i am at home away from home, when i"m on vacation i will stay at a Hotel like this, because i don"t want to go out and buy my own food and cook it.More</t>
   </si>
   <si>
+    <t>Gene M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r498084854-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -573,6 +621,9 @@
     <t>The hall carpets are from the Nixon administration and contain enough organic matter to fertilize the Sinai Dessert.  No coffee makers in the rooms, no hairdryers and the closet door has been replaced by a curtain purchased at the Goodwill Store. Great location but this joint is in serious need of a complete make over.More</t>
   </si>
   <si>
+    <t>alanbY7722II</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r495033065-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -597,6 +648,9 @@
     <t>Upon checking in, I was given no information about amenities. As a result, we missed the breakfast. We had a full kitchen, but there were no pots, pans, plates, utensils, glasses, coffee maker or anything supplied without calling the front desk. There were no hand towels, wash clothes eitherMore</t>
   </si>
   <si>
+    <t>taylormH1224ZZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r494445756-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -621,6 +675,9 @@
     <t>Had zero issues with the hotel, it was mainly issues with other guests. Check in and check out was easy, staff was very friendly and responsive to anything I needed. Other guests felt that having their kids run up and down the hall or doing jumping jacks in their room was acceptable. Again, no bad reflection of the hotel or staff.More</t>
   </si>
   <si>
+    <t>spartacus21508</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r490370886-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -645,6 +702,9 @@
     <t>I found this facility, location and staff to be excellent. It's close to attractions and good restaurants. The rooms were clean and everything worked I clouding the kitchenette. The check in was fast and friendly. Check out was the same and got the grab and go breakfast. More</t>
   </si>
   <si>
+    <t>Johnlier</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r489935712-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -669,6 +729,9 @@
     <t>The place is dirty no one to clean the entrance there was dog poop laying on concrete entrance no one had clean it up and it's been 3 days the staff had to walk by it they did nothing just one example More</t>
   </si>
   <si>
+    <t>Sunil K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r484720314-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -693,6 +756,9 @@
     <t>I recommend not to book this hotel even if they offer 50$ a night.   Room was not clean, bathroom stinks.   We didn't get any  room service for the 4 days we stayed.   Service was Terrible.   Expect loud music in the evening during weekends if you are staying in the back row rooms of the hotel as there is a party hall ..  we couldn't sleep as they kept playing music till 11.30 pm..   It was mentioned free breakfast - it's literally a muffin, cereals and coffee.   Nothing else..  spare your money and book residence inn next door if you plan to stay nearby this location.  More</t>
   </si>
   <si>
+    <t>NataleeDarrickBouman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r479766749-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -720,6 +786,9 @@
     <t>Only reason i gave it 2 star is cause staff was nice. Ran out of coffee and all toiletries. Really? How does a hotel run our of toiletries and coffee! So disapointed.  Room was supposed to be fully stocked kitchen and it literally had nothing. Empty cupboards. When i called and asked where coffee machine was she said i had to pre request it. I went downstairs to get coffee from lobby to learn they were completely out. More</t>
   </si>
   <si>
+    <t>cratebuilder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r476827941-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -744,6 +813,9 @@
     <t>Security is poor, back door was broken. Door knob to bathroom fell off when we tried to use it. Many guests with dogs and no leashes, makes you wonder about your room. Poor customer service at front desk. I could go on and on....do yourself a favor, stay at the Residence Inn next door. Might cost a bit more, but well worth it.More</t>
   </si>
   <si>
+    <t>Helenekay K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r469517340-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -771,6 +843,9 @@
     <t>I have been at Extended Stay Long Beach for an extended period of time as I am in the process of relocating. Unfortunately, it is taking longer than expected. However, the bright side is that living at Extended Stay is similar to living in a studio apartment. There's even a desk with chair and lighting for my teenager to use to do her homework. The laundry room is available 24 hours a day and includes vending machines. The door to the room is an exterior door which makes a big difference when it comes to noise. I have a service dog with me and he has been kindly accepted by the staff. I have never encountered a single solitary rude staff person here. There are two staff members who truly stand out as A+ and those would be Anthony and Sadie. I don't know where they get their patience, but I am jealous . . .LOL. They are truly above-average in intelligence, personality, and customer service. I would definitely recommend Extended Stay Long Beach and I know I will return here if the need arises.More</t>
   </si>
   <si>
+    <t>timteresa0</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r430300257-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -798,6 +873,9 @@
     <t>I stayed here for the convenience of being central to two cities. It was the worst place I have been to since I was in my 20's. There is no housecleaning service until you leave. I would never go back there again or any other properties. My work set this up for me, so I didn't have a choice to leave once I got there.More</t>
   </si>
   <si>
+    <t>Hyun L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r428895363-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -822,6 +900,9 @@
     <t>My wife decided to add a few days to our Disney vacation because we didn't have to go back to work right away and we were having so much fun in California.  So at the last minute I had to find a hotel at a reasonable rate.  Upon arrival the building looked OK from the outside and the check in process was relatively quick and easy.  This is where it gets bad...As soon as I stepped into the room it felt damp and musty; nothing looked fresh, the floor, kitchen, bathroom, bed, nothing.  But we were adding unexpected cost so whatever, just deal with it... My son started playing with his toys on the bed and one fell and went under the bed.  My wife turned on her phone light and lifted the bed skirt to retrieve the toy.  To her disgust she found a USED CONDOM covered in dust and let out a horrified gag.  I didn't believe her so I looked for myself and as sure as the sky is blue there it lay.... I FREAKED, went straight to the front desk and demanded a refund.  As I was packing up the little that was unpacked I discovered the single chair in the room had something running down the side of it, the side that faced the bed and should have been spotted by house keeping.  I also discovered a small yellow pill in the corner of the...My wife decided to add a few days to our Disney vacation because we didn't have to go back to work right away and we were having so much fun in California.  So at the last minute I had to find a hotel at a reasonable rate.  Upon arrival the building looked OK from the outside and the check in process was relatively quick and easy.  This is where it gets bad...As soon as I stepped into the room it felt damp and musty; nothing looked fresh, the floor, kitchen, bathroom, bed, nothing.  But we were adding unexpected cost so whatever, just deal with it... My son started playing with his toys on the bed and one fell and went under the bed.  My wife turned on her phone light and lifted the bed skirt to retrieve the toy.  To her disgust she found a USED CONDOM covered in dust and let out a horrified gag.  I didn't believe her so I looked for myself and as sure as the sky is blue there it lay.... I FREAKED, went straight to the front desk and demanded a refund.  As I was packing up the little that was unpacked I discovered the single chair in the room had something running down the side of it, the side that faced the bed and should have been spotted by house keeping.  I also discovered a small yellow pill in the corner of the room.  I don't know what the pill was but to be on the floor for any child to pick up and swallow is just plain negligent.  Needless to say this was my first and list time I will ever stay at any Extended Stay America.  SHAMEFUL!More</t>
   </si>
   <si>
+    <t>Avalonnotarypublic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r423819138-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -849,6 +930,9 @@
     <t>Room smelled like smoke, no room to change to, no deodorizer offered.  No bedding for pull out for 3rd person and had to wait almost 2 hours for them to bring it.  We went to desk to ask for it 2x.   When I went to ask for shampoo they did not answer the buzzer. The nightstands were sticky and oily.  The toilet did not flush well.  Tiny TV's.  The parking lot was scary, probably should have security walking the property.More</t>
   </si>
   <si>
+    <t>mfrye1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r392349406-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -876,6 +960,9 @@
     <t>Please do not stay here if you are traveling with your family.  We experienced drug activity during our entire stay.  What was worse, there was a pimp with two of his prostitutes using the hotel to meet John's! What was crazier, the Long Beach PD station can wS literally across the street!  The hotel was fine but again... families with children...GOD NO!More</t>
   </si>
   <si>
+    <t>Dorothy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r387471731-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -903,6 +990,9 @@
     <t>I wish I could give this ZERO stars.  We found bed bugs in our room, complained and the answer we got was "sorry".  They didn't move us or ever clean our room.Then we found cockroaches under the sink. The room smelled like mildew and was dirty.  The sheets had good stains, probably from previous bug bites.  I have travelled all over the world and this is the most disgusting place I have ever stayed.More</t>
   </si>
   <si>
+    <t>kndy2099</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r384472912-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -930,6 +1020,9 @@
     <t>I was in Long Beach for a funeral and we needed a place that was close to the funeral area and many of the hotels were booked.Fortunately, ExtendedStay was not only near the funeral area but the price was affordable.  My brother and I need a quick room and the customer service was fantastic, the beds were comfortable and for the most part, the hotel met my expectations as it was clean and comfortable.  No worries of outside noise or neighboring rooms.I would definitely stay at this hotel again and recommend it!More</t>
   </si>
   <si>
+    <t>iamtariann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r369719056-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -957,6 +1050,9 @@
     <t>Staying at the Extended Stay America in Long Beach Ca. has been so comforting at a time I needed it the most.  The staff are all so nice and have been very helpful.   The rooms nice and clean.  It is located in a safe neighborhood and right across the street is the Long Beach Police Dept.  I would recommend it to anyone coming to Long Beach for a visit.More</t>
   </si>
   <si>
+    <t>cerra12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r354564300-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -972,6 +1068,9 @@
     <t>Stayed here on business. No real lobby. No 24 hour staff. Room had nothing. Not even a glass or coffee maker. Hallway smelled like smoke. Breakfast consisted of stale muffins and granola bars. The coffee machine was broken so there was no coffee. I will never stay here again.</t>
   </si>
   <si>
+    <t>rhianna p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r350966752-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -990,6 +1089,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Regina W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r333606918-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1011,6 +1113,9 @@
     <t>The hotel is in a convenient location and the desk staff is friendly and welcoming. The room was not!  The carpet was dirty and shredded in spots. I would not walk in my bare feet.  The kitchenette had grimmy cabinet doors and the closet had only a curtain covering. The bed was comfortable, but the sheets made me itch and there were not enough pillows for two people. There was a nice faux leather recliner that was surprisingly still clean and comfortable. The television had sound problems and could not be lowered to a quieter level. Some stations had interference and static. The tv selection was minimal and no guide. The bathroom had plenty of towels, good water pressure, a big mirror, functioning shower, sink, and toilet, but the shower curtain was grimmy and worn. Even with the promotional 15% rate discount, this was a bad value. I just hope there were no hitch-hiking bed bugs. The grab and go breakfast was icky. The fresh fruit was not a good quality, the muffins looked questionable, and the packets of instant oatmeal were just instant oatmeal. If not for the convenient location and the pet friendly policy, I would not EVER have stayed here.More</t>
   </si>
   <si>
+    <t>Sabrina M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r325566762-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1029,6 +1134,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Sayra C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r307840079-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1047,6 +1155,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>TahoeFamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r303521634-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1068,6 +1179,9 @@
     <t>We stayed at this hotel for only one night. This chain caters to long stay visitors so I'm not surprised that the otherwise fully equipped kitchen was stripped of all dishes, cookware, etc., but hey, why take the coffee maker too?. Even Motel 6 has coffee makers in their rooms. And no hair dryer? To be fair, the check-in staff offered to supply kitchen items but they seemed very busy and I really didn't want to add to their stress. Our room was clean except for a wet wash cloth that we discovered hanging in the shower.  The grab and gulp "breakfast" (or whatever they call it) was a major disappointment. On the evening that we checked-in there were several men barbequing in the parking lot - seemed okay - but why were they all still there in the morning at check-out?  Could they have been living on the grounds?  We were given passwords for free wifi and given options for (expensive) upgrades, which we declined even though the free wifi was nearly worthless. We chose this hotel because others near CSULB were full.  Would we return?  No, unless there were no other options.  Not a bad place overall, but bad value for short term visitors.More</t>
   </si>
   <si>
+    <t>Alex H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r302646280-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1092,6 +1206,9 @@
     <t>I've stayed at this hotel at least 6 times in the past 2 years, as my daughter attends CSULB, and we had to drive her down, pick her up, or sometimes just come for a visit.  Tghe hotel has a god kitchen, but now you have to ask for all cooking and eating utensils, as the staff says that theft of cookware was a real problem.  I've always enjoyed my stay here, the front desk staff is always friendly and helpful, room is clean, great water pressure in the shower, rooms are roomy and clean, mattresses are firm enough for a decent night's sleep.  Outside noise has never been a problem.  Very convenient to CSULB, and especially the airport if you are flying in.More</t>
   </si>
   <si>
+    <t>Adrienne S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r289311280-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1110,6 +1227,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>vocalgirl13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r263496674-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1128,6 +1248,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>HotelGuruGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r262238390-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1146,6 +1269,9 @@
     <t>This hotel is old and dated and tries to operate as a $100+ a night hotel when really their tiny suites should only be $60.They also charge 15% tax per night.There's only queen beds and no kings unless you can afford the $140 a night 1 room suite.Anyway this hotel needs help...The rooms are tiny and the beds are uncomfortable.Air conditioning in room barely worked.They don't keep kitchen items in the rooms so you have to call the front desk and maybe after 2 hours you'll get them.There is very little sound proofing so be prepared to hear everything.Rooms need new microwaves.There are only 20 tv channels and 10 of them are espn/sports, so good luck finding anything to watch. Reception sucks too lots of static for a hotel that charges so much.Shower head had lots of limescale all over it.Internet is slow unless you pay for their high speed upgrade.Curtains are cheap and need to be replaced so that the room can be blacked out.On the whole I feel ripped off and wish I could get my money back. Will never come again. More</t>
   </si>
   <si>
+    <t>Jenniferbdierks... D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r260868338-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1161,6 +1287,9 @@
     <t>Rooms had a foul smell. Bedding smelled moldy and I left with several bites on my legs. When I said something about the bedding smelling moldy I was told I could strip the bed myself and bring it to the front desk and they would give me new bedding. Did offer to switch rooms which I did but the room smelled bad still. Front desk staff was amazing but that was the only good thing I can say about my experience.</t>
   </si>
   <si>
+    <t>rayteethompson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r257298306-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1179,6 +1308,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Mary B S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r256755585-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1197,6 +1329,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Sean H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r250994548-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1215,6 +1350,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>MCKohl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r238220818-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1239,6 +1377,9 @@
     <t>We come to Long Beach several times a year and have stayed in lots of hotels &amp; motels. We recently tried Extended Stay America and find its the best value for the money. Sadie at the front desk has been very friendly and able to answer any questions we've had. Because of the value and the friendly, knowledgeable staff we highly recommend Extended Stay America Long Beach to anyone coming to the area.More</t>
   </si>
   <si>
+    <t>Eric1173</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r233541575-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1257,6 +1398,9 @@
     <t>It's great. The staff are like family and it truly feels like home. I've stayed here for 5 months for work and love that I'm close to everything. IE airport is a $12.00 cab ride away and they pick you up pretty damn fast.More</t>
   </si>
   <si>
+    <t>Kourtnee M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r232969700-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1281,6 +1425,9 @@
     <t>I stayed here with my boyfriend and I had not one complaint. The day was hot and we arrived to a cool room with the airconditioning already turned on. Check in was a speedy process. They called us about 1 hour after being in our room just to check on us and ask if we needed anything to better our stay. The room had a small kitchen which is convenient for longer stays, the bed was so comfortable, nice pillows and plenty roomy for me and my bf, the tv was modern with plenty of channels, and the bathroom was clean and huge with amenities and clean towels. I would definitely stay here again! The breakfast was without but its definitely enough to snack on to start your day!More</t>
   </si>
   <si>
+    <t>Wordwoman54</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r232397784-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1305,6 +1452,9 @@
     <t>Not sure what Marco and Emele experienced, but I found this Extended Stay and its team very helpful and courteous during my entire stay, which began September 30.  Equipment for use in the kitchenettes -- including a fry plan and sauce pan, as well as plates, bowls, cups, and utensils --  are available from the front desk (perhaps Marco didn't realize that) and the rooms are clean and well cared for. An iron and full-size ironing board, as well as a hair dryer, were in the room, something I wasn't sure I could expect at this moderately priced hotel. There was also a modest breakfast -- including a selection of fresh fruit, four types of oatmeal, and several different muffins from which to choose. Again, I didn't expect this from a hotel that features kitchenettes (assumed I'd be on my own) in each room. Extended Stay doesn't provide daily maid service, but I didn't mind that.  I don't need fresh linens every single day!  Nice, clean, quiet, with enough outlets for whatever electronics you bring with you, a desk, a separate table and chairs for eating, and even a nicely situated lounge chair so you don't have to sit in bed to watch TV if you don't want to do so!  Definitely would stay here or try another Extended Stay elsewhere again!More</t>
   </si>
   <si>
+    <t>Marco E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r231172825-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1326,6 +1476,9 @@
     <t>Stayed there for 3 days and asked for a non smoking room. ...stunk worse than a poker room full of a sailors. Had to go buy a candle to mask the cigarette stench. TV had poor reception, you would think that room with a kitchen would have at least a few cups, they don't provide that, nor complimentary shampoo or other small condiments.  No dim lamps, you also have to go to the Jewish center across the street to get a swim. the complementary breakfast consists of granola bars, muffins, and coffee.  And really that's it! The stairways stink of a smell I have never come across,  i still can't figure it. A definite pass on my next trip to LBCMore</t>
   </si>
   <si>
+    <t>Emele M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r230421727-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1344,6 +1497,9 @@
     <t>Front desk agent who made my reservation was fantastic but the agent who checked me in needed a little more training. I understand she was new but made check in kinda hard. Couldn't check in until 5pm when I arrived at 4 and check in is at 3. I know housekeeping can be slow but not this slow. Was told I would receive 20% off for late check in but I had to make sure to tell agent in morning? That should be something the front desk agent takes care of. I'm already stressed over the late check in now I have to take care of check out. On top of the fact I never even got to sign my reg card. It just made the hotel seem unorganized.More</t>
   </si>
   <si>
+    <t>Paula H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r222663772-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1368,6 +1524,9 @@
     <t>We stay here a few times a year and have for about 3 years. The place is very clean. Recently updated paint, flooring, tv, mattresses. They are very conservative with their soaps and paper products. You can ask for only the kitchen items you will be using during your stay. The staff is always very friendly (even Syna at 1:30am). Continental breakfast is great. Price per stay is very affordable tooMore</t>
   </si>
   <si>
+    <t>catwoman5555</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r219490303-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1392,6 +1551,9 @@
     <t>When we arrived, the place looked great from outside. Parking was free and enough to go around. The staff was friendly and helpful. Elevator was about to break. They even had a hand written yellow post-it sign stating a specific button would cause elevator to get stuck. We used the stairs to be on safe side. The room... Very great size. Paint chips all over walls and smudge marks on bed headboard was not what someone would want to see. It's Nice to have a refrigerator. House keeper needs to do a better job at cleaning out trash. There was old rotten food in the cabinet. Really disgusting to see. The bathroom... Toilet leaked every time you flushed. I did over hear the front desk clerk tell another guest that there was plumbing issues and they were aware. Shower water was nice and hot, but made a noise while on. At night you could hear loud music until about 1am. I believe its due to the event hall next door.  Grab and go breakfast was yummy and satisfying. Laundry room was a great + to have!More</t>
   </si>
   <si>
+    <t>ECP135</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r219244816-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1419,6 +1581,9 @@
     <t>Stayed here for three nights while birdwatching in the area. Room was comfortable, clean and quiet, and the kitchenette was useful. Staff was friendly and helpful. There was a laundry room. Easy freeway access, convenient to a large shopping center. Ample parking.More</t>
   </si>
   <si>
+    <t>Vicki D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r215377066-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1446,6 +1611,9 @@
     <t>Rooms clean and comfortable but would prefer king bed in single bedrooms. There is a hall next door that has loud music until midnight would have been nice to know this ahead of time. Also I had rented 2rooms and both did not have smoke detectors in them was a concern for safety.  Staff at hotel is very friendly and helpful. Loved the fact it's a pet friendly hotel as well.  Very close to aquarium of the pacific only about 15 min drive.More</t>
   </si>
   <si>
+    <t>Daniel D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r211829000-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1464,6 +1632,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Don50alexandria</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r204834660-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1491,6 +1662,9 @@
     <t>Room was clean and comfortable. Great location easy access to the airport.  Front desk and house keeping personnel were friendly, courteous, and helpful. We had a plumbing problem and it was handled immediately. My only negative comment is that the hallways smelled of smoke and pot. I was a little surprised by the negative reviews. But we were pleasently surprised and we would stay here again.More</t>
   </si>
   <si>
+    <t>Rick R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r199087391-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1512,6 +1686,9 @@
     <t>I recently sold my condo and needed a place to stay on a month to month basis, until I could relocate, I choose Extended Stay because of its location and at that time, the price, plus being able to work out of the Extended Stay Executive Suite. I checked into Extended Stay in April 2013, and end up staying until February 1st, 2014. I felt so comfortable and safe at this Long Beach Airport Location, the hotel staff was outstanding, genuine, down to earth, professional, yet had a good sense of humor. I would like to point out an interesting observation, being a Senior Level Contract Manager, I couldn't help but observed during my nine month Extended Stay, that the Lead Manager Carlos and his staff not only enjoyed having guests, such as myself around, but also showed a professional relaxation around their own boss, Carlos.  During my stay, I noticed  three staff members graduate into the next step of Hotel Management, and this made me feel I had witnessed an accomplishment, of seeing how this Hotel Operates, Makes sense, I felt I was a part of Carlos Extended Stay Family of Guests and Employees.  All his employees, were so down to earth, and had a genuine sense of humor, plus I enjoyed my little chats while I was in the lobby, or walking up or down the hallways, where the housekeepers were always cleaning the rooms with a professional,...I recently sold my condo and needed a place to stay on a month to month basis, until I could relocate, I choose Extended Stay because of its location and at that time, the price, plus being able to work out of the Extended Stay Executive Suite. I checked into Extended Stay in April 2013, and end up staying until February 1st, 2014. I felt so comfortable and safe at this Long Beach Airport Location, the hotel staff was outstanding, genuine, down to earth, professional, yet had a good sense of humor. I would like to point out an interesting observation, being a Senior Level Contract Manager, I couldn't help but observed during my nine month Extended Stay, that the Lead Manager Carlos and his staff not only enjoyed having guests, such as myself around, but also showed a professional relaxation around their own boss, Carlos.  During my stay, I noticed  three staff members graduate into the next step of Hotel Management, and this made me feel I had witnessed an accomplishment, of seeing how this Hotel Operates, Makes sense, I felt I was a part of Carlos Extended Stay Family of Guests and Employees.  All his employees, were so down to earth, and had a genuine sense of humor, plus I enjoyed my little chats while I was in the lobby, or walking up or down the hallways, where the housekeepers were always cleaning the rooms with a professional, friendly manner. What my leading  true point to this review is during my nine month stay, I was solo, yet I never felt alone, for example, all my immediate family lives in Illinois, and I was not able to fly back during Christmas due a personal back injury while organizing my personal storage room. My first Christmas away from my Illinois family was bearable, not just because the Long Beach weather was sunny and warm, but mainly  because I felt I knew Carlos and his staff  well enough to be invited to hang out with them while they had their Employee Christmas Party. The Christmas Tree was beautiful, and the atmosphere at Extended Stay in Long Beach was happy and Cheerful, during the Holiday season, so that is why my review is called  " Home is Where YOUR Suitcase Is !!!! Rick R.More</t>
   </si>
   <si>
+    <t>Mommyslice</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r198432862-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1527,6 +1704,9 @@
     <t>Everything in the room and in the hallway smelled gross, the sink was in disrepair, there was a damp and moldy wooden bench in the bathtub.  The upstairs guests were loud all night long, and no one answered at the front desk when needed. Never staying at an extended stay again!</t>
   </si>
   <si>
+    <t>RogerNoriega</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r187542227-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1542,6 +1722,9 @@
     <t xml:space="preserve">Staff were excellent. Room much too expensive for a one-night stay and knowing the hour in which it was booked, too expensive. Room has extensive facilities, excellent for long stays. Extra towels and pillows were already in room. </t>
   </si>
   <si>
+    <t>ET A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r180881629-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1560,6 +1743,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Bernie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r179869844-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1578,6 +1764,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Sundina</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r176391225-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1602,6 +1791,9 @@
     <t>We needed a place that we could save a few bucks by cooking and eating in.  That place is Extended Stay.  This is a very affordable stay and the conditions of the room is a lot better than other Extended Stays I've been to.  This place is close to the airport and the 405 freeway--so it's easy to travel.  It even has a Breakfast to go ( consisting of granola/oatmeal bars, juice/tea/coffee, and fruits)  I'll keep it short...Positives: cost, cleanliness, friendly and accommodating staff(we must have called 5 times for various things ranging from utensils and activating the smoke alarm), close to airport, FREE wifiNegatives: not much to do around that area--you need to drive or ride the bus into downtown or the beach, strangely, there are many cats off on the east side of the parking, and although we asked for a non-smoking room, throughout the day, our bathroom would smell vaguely of cigarettes.  (I think it's a shared vent from the neighbors.) we kept the fan on all day.More</t>
   </si>
   <si>
+    <t>Jonathan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r175548479-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1620,6 +1812,9 @@
     <t>I relocated to Los Angeles for a job. I stayed here for a month while I looked for an apartment. The studio room I had was very clean and nicely furnished. It was a very quiet corner unit. Having a kitchenette was very convenient, as was the on-site laundry room. A continental breakfast in the lobby every morning was included in the stay. Housekeeping came once a week and all the employees were friendly and helpful. There were several casual restaurants within walking distance. This is a very nice, reasonably priced hotel for anyone needing a longer stay.More</t>
   </si>
   <si>
+    <t>villald</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r175281555-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1641,6 +1836,9 @@
     <t>The room was really nice decorated and everything was clean, the employees were really helpful, if you have a car the hotel is only 5 - 10 minutes from the "action". The room was super quiet and more than OK for the price. Internet service was free, if you want to increase to higher speeds several options are available at competitive prices. After paying 15$ for 3-4 hours of parking in Long Beach, the free parking feature was a relief! :-)More</t>
   </si>
   <si>
+    <t>angelgirl66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r172432688-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1668,6 +1866,9 @@
     <t>I stayed here with my boyfriend in March and it was great. It was like having our own apartment for the weekend. We can cook in or go out. The only down side is they have no swimming pool the beach isnt to far and my boyfriend is from there so I felt right at home. We will be staying there again in September. I love that it is close to Long Beach Municipal Airport too just 1 mile. Worth the stay and very private.More</t>
   </si>
   <si>
+    <t>aldaron83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r167718707-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1695,6 +1896,9 @@
     <t>The room smelled funky all the time we stayed there (4 nights). It didn't help to open the windows. The cleaners had also forgotten to empty the trash from the previous guests and the A/C went *BAM* every time it started up.But, the place was nice. The room was big and you do get great value for your buck. Bring your own shampoo, though. There is a small kitchen in the room, where you can make your breakfast (you get what you want from the grab-and-go breakfast in the lobby and prepare it for yourself in the room).The staff was friendly and helpful and parking lot always had plenty of room.More</t>
   </si>
   <si>
+    <t>Braddy E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r164524060-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1722,6 +1926,9 @@
     <t>Facility was clean and recently renovated. The room appeared to have just been painted and with new carpet and fixtures. Very nice. Convenient to Long Beach airport. I would stay here again. Staff was helpful and friendly. Facility was completely full but was still clean. Room was quiet. Breakfast was well-stocked, nothing fancy, but was greatly appreciated since we had a very early flight.More</t>
   </si>
   <si>
+    <t>Dennis W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r161942426-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1749,6 +1956,9 @@
     <t>Room was very small but it was clean and quiet. Bring your own shampoo and hair dryer but an iron is provided. Breakfast consists of coffee and granola bars, oatmeal, or fruit. Bed was firm but comfortable. More</t>
   </si>
   <si>
+    <t>Leanis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r160981951-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1773,6 +1983,9 @@
     <t>Of several places in the area that I have stayed in the last 7 months, this one is the quietest, except for one occasion when an idiot outside my window fired up his vroom vroom rod and blasted his radio waking me up. Other than that, the bed was clean and comfortable. The room was clean but nothing fancy. If you're on a lower floor, you can hear people walking around abov you. Fortunately, for me this time, it wasn't much of an issue. The TV kept flipping from wide screen to full screen. I don't know what is up with that.  I don't like the idea that the hotel taxes are 15%, which is almost double everywhere else I have been staying in the area. Don't expect much from the grab and fo breakfast. There isn't much to grab. You'd be better off going and grabbing something somewhere else. That being said, I will probably stay here again. There is no restaurant and I don't know if there is a fitness center or not.More</t>
   </si>
   <si>
+    <t>glajones</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r160568232-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1789,6 +2002,9 @@
   </si>
   <si>
     <t>We ended up staying here for 2+ weeks in May 2013 - the front desk staff were great, the room was nice and clean, beds were good. Kitchen fit-out (pots, crockery, etc) was serviceable. Room was very quiet - never heard any planes taking off. The second time we stayed had a 'difficult' person doing a phone reservation but that's going to happen sometimes.We definitely would stay there again if we were in that part of Long Beach.More</t>
+  </si>
+  <si>
+    <t>Kirkland S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r159721316-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
@@ -1815,6 +2031,9 @@
 The "breakfast" is also a joke. It should be titled a snack bar. The oranges appeared to have had better days. The muffins were fair, but...First off, my wife made reservations for this entire trip in her name. I happened to arrive 2 hours before she did. When I went to check in, the young guy at the front desk asked for my wife. I told her she will be in around 7 PM. He told me that I couldn't check-in since this reservation wasn't in my name. I wasn't pleased, at all. I waited until my wife arrived to check in. The very friendly lady at the counter apologized and noted there shouldn't have been an issue since the reservation wasn't prepaid. She implied it would have been as simple as changing the name and charging my card directly. (I even explained to the guy that the my wife and I have a joint credit card account and it's all the same money) This episode started the night off to a rough start. Then as we were trying to get some rest, the Event Center next door was extremely loud and continued on after midnight. We couldn't rest from the bass of the music playing.The walls seem to be paper thin. The person in the room above us caused the ceiling to shake as they walked in their room. It didn't seem as if they were stomping.The "breakfast" is also a joke. It should be titled a snack bar. The oranges appeared to have had better days. The muffins were fair, but not enough for my family to get 2 each. If you have children, stay somewhere else. This hotel doesn't have a pool for them.The young lady at check-out encouraged us to write about our stay on TripAdvisor. So here we are!More</t>
   </si>
   <si>
+    <t>robsSanJose</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r158333369-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1839,6 +2058,9 @@
     <t>Morning and afternoon staff was friendly and acomodating.  The late night staff was left to be desired.  My check in was after 11:30 and I was not greeted by a friendly smile like the morning staff.  My room was surprisingly big.  Fairly clean and descent. The location is very convenient.  405 close and everything that you want to do in Long Beach is a car ride or cab ride away.  Things that could be improved:  The bed was a little too firm for me.  Sheets could've been a little better.  What is up with hotels now a days skimping on their sheets.  And that's with any hotel.  The fridge was noisy and didn't really keep anything cold. But that was the only thing that was noisy.  You can't hear the planes at the airport or the freeway, having both of them be very close. The other thing that I wish could've been improved, was that the stairs and hallways weren't very clean.  The stairway looked like they havent been cleaned/mopped in a while, various pieces of trash I saw the whole time during my 3 day stay.   Overall stay was good, and the hotel did the job that it needed to.  Nice place to stay, at a good price.   I would stay again.More</t>
   </si>
   <si>
+    <t>deedeeb941</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r156902661-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1863,6 +2085,9 @@
     <t>Front desk was so helpful, friendly, and great to speak with. Room was clean and very comfortable. Since I read this one was near an airport I expected lots more noise during the night....must have used great insulation and noise reduction materials. The price was very reasonable. The only down side was the selection and availability of TV channels....that feature needs improvement. I would certainly consider staying again!More</t>
   </si>
   <si>
+    <t>verlena s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r156301800-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1890,6 +2115,9 @@
     <t>OMG my stay here is always so wonderful what keeps me coming back is the wonderful managment that this establishment displays the staff is outstanding which is just only a reflection of their manager Mitch. When you find a manager that jumps right in and takes care of things himself instead of designating the work to his staff you have really found a manager that has a passion for what he does. Thanks for making my stay always so delightfulMore</t>
   </si>
   <si>
+    <t>J E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r153986323-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1914,6 +2142,9 @@
     <t>We all have multiple choices when we pick a hotel. It is always much more pleasant when you have great hotel employees and a comfortable room in a very convenient location. I have been a guest at this location for many years. So when you check in be sure and say hello to Mitch (mgr.) Front desk folks.....Ericka.Kyle,Joseph,SergioMore</t>
   </si>
   <si>
+    <t>NGeer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r152599604-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1941,6 +2172,9 @@
     <t>My stay at ESA in Long Beach for only two nights was part of a whirlwind trip to visit a friend and see a bit of Long Beach.   I prefer this type of accommodation with its kitchen facilities so I can make tea or heat up a bit of food without going out for every meal.  I was traveling with my small dog and the $25.00 additional fee was well worth it for the good service and very clean room.  The staff- both front desk and room service workers, etc. were both efficient and pleasant - exceptional for this day and age.  The front grounds were attractive with some grass and flowers and a well-lit parking lot was welcoming as I arrived after dark.   A fresh pastry or muffin for that " grab and go " breakfast instead of the chemical-laced one would be an improvement, however the good fresh coffee in the morning made up for it.   I'll be back  !More</t>
   </si>
   <si>
+    <t>Calvin C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r152214048-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1965,6 +2199,9 @@
     <t>I stay at the Long Beach facility regularly.   I am always impressed by the genuine courtesy afforded me by the knowledgeable and efficient staff.  They truly go above and beyond to make me feel at home.  It is very apparent that the team at the facility has embraced a culture of service.  The facility is more than adequate, but it is the staff that makes the experience a pleasure.More</t>
   </si>
   <si>
+    <t>Larice M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r148563496-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1992,6 +2229,9 @@
     <t>Well.. The room was fine also the attention in the reception, I was disappointed  about the breakfast it was like a joke.  It were served in a small table just in front the reception and they were just couple of apples in a bad condition, not the outside but the inside, muffin and few snack. Something to think about it, if you like to have a good breakfast just like me.More</t>
   </si>
   <si>
+    <t>Rob F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r147760854-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2016,6 +2256,9 @@
     <t>I have stayed here for several trips over the last three months. Great location, near shopping, reastuarants, airport, and freeway.  30 minutes from Disneyland, 30 minutes from downtown LA. Place has always been quiet.More</t>
   </si>
   <si>
+    <t>john32648</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r147757072-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2031,6 +2274,9 @@
     <t>Our company first started  using the Extended Stay Of America Long Beach in early 2011 to present. We are extremely impresssed with the facility and especially the staff! We would especially like to mention Essy, Kyle,Erika and the new manager Mitch. They have all met our needs and requests immediately and with professionalism.J.Rodriguez Marine HealthcareMore</t>
   </si>
   <si>
+    <t>lydthompson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r142253851-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2055,6 +2301,9 @@
     <t>It would have been a good value but the room smelled like pet urine and they said they had no other rooms. It was difficult to sleep. The mattress comfort was average and at least it was spacious. Most if the staff were curtious. Would never go back.More</t>
   </si>
   <si>
+    <t>June N Pumpy A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r136865864-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2082,6 +2331,9 @@
     <t>Would never recommend this hotel to anyone!! Although the rooms were clean, the entire hotel had this scary feeling. Hallway lights are dim and spooky. If you walk the hallways you might just be snatched. They never changed the bed sheets. NO POOL, we have to take out our own trash and there is no lobby with comfortable couches for guests to sit and relax. Hotel staff were rude with the exception of one by the name of Ency (I think is her name). Are you kidding me...NO BREAKFAST!!!! Not even complimentary coffee or water/juices throughout the day!!!! We asked for xtra towels and were told we had to bring back our used ones. When we called for tissue we had to come get it ourselves.  TERRIBLE, TERRIBLE STAY!!!  Would never stay here again not especially for the price we paid. Seriously downgraded our stay from our previous hotel which was only at $76.00More</t>
   </si>
   <si>
+    <t>Estelle E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r132260313-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2107,6 +2359,9 @@
   </si>
   <si>
     <t>Stayed overnite, very pleased that is was so clean. The that staff was awesone too. Looking foward to staying again, hopefully for more than 1 nite.More</t>
+  </si>
+  <si>
+    <t>RuthiRN</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84094-r124286992-Extended_Stay_America_Los_Angeles_Long_Beach_Airport-Long_Beach_California.html</t>
@@ -2632,43 +2887,47 @@
       <c r="A2" t="n">
         <v>35637</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>146333</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2680,56 +2939,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>35637</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146334</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2751,56 +3014,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>35637</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146335</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -2822,56 +3089,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>35637</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>146336</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -2893,56 +3164,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>35637</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146337</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2954,56 +3229,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>35637</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>146338</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -3025,56 +3304,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>35637</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146339</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -3096,56 +3379,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="X8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>35637</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146340</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -3167,56 +3454,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>35637</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146341</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -3238,56 +3529,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>35637</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146342</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -3301,56 +3596,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="X11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>35637</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>146343</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3362,56 +3661,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="X12" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>35637</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>35667</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3423,56 +3726,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>35637</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>146344</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -3494,56 +3801,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>35637</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146345</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -3561,56 +3872,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>35637</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>146346</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -3632,56 +3947,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="X16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="Y16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>35637</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>21155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3697,56 +4016,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="X17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="Y17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>35637</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146347</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="J18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="O18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3764,56 +4087,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="X18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Y18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>35637</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146348</v>
+      </c>
+      <c r="C19" t="s">
+        <v>210</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="J19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="K19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3835,56 +4162,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="X19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>35637</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146349</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3906,56 +4237,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="X20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="Y20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>35637</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>146350</v>
+      </c>
+      <c r="C21" t="s">
+        <v>228</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="K21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="L21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -3977,56 +4312,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="X21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="Y21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>35637</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>146351</v>
+      </c>
+      <c r="C22" t="s">
+        <v>237</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="J22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="K22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4038,56 +4377,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="X22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Y22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>35637</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>146352</v>
+      </c>
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="O23" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4099,56 +4442,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="X23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="Y23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>35637</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>146353</v>
+      </c>
+      <c r="C24" t="s">
+        <v>256</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="J24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="K24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="L24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4166,56 +4513,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="X24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="Y24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>35637</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>146354</v>
+      </c>
+      <c r="C25" t="s">
+        <v>265</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="J25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="K25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="L25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4227,56 +4578,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="X25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="Y25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>35637</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>146355</v>
+      </c>
+      <c r="C26" t="s">
+        <v>275</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="J26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="K26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="L26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4288,56 +4643,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="X26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="Y26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>35637</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>5103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>285</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="J27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="K27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="L27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -4355,56 +4714,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="X27" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="Y27" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>35637</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>146356</v>
+      </c>
+      <c r="C28" t="s">
+        <v>294</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="J28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="K28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="L28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4422,56 +4785,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="X28" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="Y28" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>35637</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>146357</v>
+      </c>
+      <c r="C29" t="s">
+        <v>304</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="J29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="K29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="L29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -4489,56 +4856,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="X29" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="Y29" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>35637</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>51702</v>
+      </c>
+      <c r="C30" t="s">
+        <v>314</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="J30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="K30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="L30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4556,56 +4927,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="X30" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="Y30" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>35637</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146358</v>
+      </c>
+      <c r="C31" t="s">
+        <v>324</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="J31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="K31" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="L31" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4623,56 +4998,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="X31" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="Y31" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>35637</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>146359</v>
+      </c>
+      <c r="C32" t="s">
+        <v>334</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="J32" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="K32" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="L32" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="O32" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4688,56 +5067,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="X32" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="Y32" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>35637</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146360</v>
+      </c>
+      <c r="C33" t="s">
+        <v>344</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="J33" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="K33" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="L33" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4751,50 +5134,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>35637</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>146361</v>
+      </c>
+      <c r="C34" t="s">
+        <v>350</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="J34" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="K34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="L34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4814,50 +5201,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>35637</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>34665</v>
+      </c>
+      <c r="C35" t="s">
+        <v>357</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="J35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="K35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="L35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -4877,50 +5268,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>35637</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>40426</v>
+      </c>
+      <c r="C36" t="s">
+        <v>365</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="J36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="K36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="L36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4940,50 +5335,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>35637</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>146362</v>
+      </c>
+      <c r="C37" t="s">
+        <v>372</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="J37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="K37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="L37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5001,50 +5400,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>35637</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>146363</v>
+      </c>
+      <c r="C38" t="s">
+        <v>379</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="J38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="K38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="L38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5064,50 +5467,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>35637</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>66219</v>
+      </c>
+      <c r="C39" t="s">
+        <v>387</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="J39" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="K39" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="L39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5125,56 +5532,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="X39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="Y39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>35637</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>46967</v>
+      </c>
+      <c r="C40" t="s">
+        <v>396</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="J40" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="K40" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="L40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5194,50 +5605,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>35637</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146364</v>
+      </c>
+      <c r="C41" t="s">
+        <v>403</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="J41" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="K41" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="L41" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="O41" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5251,50 +5666,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>35637</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>146365</v>
+      </c>
+      <c r="C42" t="s">
+        <v>410</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="J42" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="K42" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="L42" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="O42" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5308,50 +5727,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>35637</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>146366</v>
+      </c>
+      <c r="C43" t="s">
+        <v>417</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="J43" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="K43" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="L43" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="O43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5365,50 +5788,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>35637</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>146367</v>
+      </c>
+      <c r="C44" t="s">
+        <v>423</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="J44" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="K44" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="L44" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -5428,50 +5855,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>35637</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>146368</v>
+      </c>
+      <c r="C45" t="s">
+        <v>430</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="J45" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="K45" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="L45" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5489,50 +5920,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>35637</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>4544</v>
+      </c>
+      <c r="C46" t="s">
+        <v>437</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="J46" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="K46" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="L46" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -5552,41 +5987,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>35637</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>146369</v>
+      </c>
+      <c r="C47" t="s">
+        <v>444</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="J47" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="K47" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="L47" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
@@ -5613,47 +6052,51 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="X47" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="Y47" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>35637</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>146370</v>
+      </c>
+      <c r="C48" t="s">
+        <v>453</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="J48" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="K48" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="L48" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
@@ -5680,56 +6123,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="X48" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="Y48" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>35637</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>146371</v>
+      </c>
+      <c r="C49" t="s">
+        <v>460</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="J49" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="K49" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="L49" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="O49" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5747,56 +6194,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="X49" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="Y49" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>35637</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146372</v>
+      </c>
+      <c r="C50" t="s">
+        <v>469</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="J50" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="K50" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="L50" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="O50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -5814,56 +6265,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="X50" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="Y50" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>35637</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>146373</v>
+      </c>
+      <c r="C51" t="s">
+        <v>478</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="J51" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="K51" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="L51" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5875,47 +6330,51 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="X51" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="Y51" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>35637</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>146374</v>
+      </c>
+      <c r="C52" t="s">
+        <v>486</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="J52" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="K52" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="L52" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
@@ -5942,56 +6401,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="X52" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="Y52" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>35637</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>19731</v>
+      </c>
+      <c r="C53" t="s">
+        <v>493</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="J53" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="K53" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="L53" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6009,47 +6472,51 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="X53" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="Y53" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>35637</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>146375</v>
+      </c>
+      <c r="C54" t="s">
+        <v>502</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="J54" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="K54" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="L54" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
@@ -6076,56 +6543,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="X54" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="Y54" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>35637</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>146376</v>
+      </c>
+      <c r="C55" t="s">
+        <v>511</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="J55" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="K55" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="L55" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="O55" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -6143,56 +6614,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="X55" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="Y55" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>35637</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>41553</v>
+      </c>
+      <c r="C56" t="s">
+        <v>521</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="J56" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="K56" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="L56" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -6208,56 +6683,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="X56" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="Y56" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>35637</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>42081</v>
+      </c>
+      <c r="C57" t="s">
+        <v>531</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="J57" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="K57" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="L57" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="O57" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -6281,50 +6760,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>35637</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>146377</v>
+      </c>
+      <c r="C58" t="s">
+        <v>538</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="J58" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="K58" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="L58" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6346,56 +6829,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="X58" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="Y58" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>35637</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>18587</v>
+      </c>
+      <c r="C59" t="s">
+        <v>548</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>492</v>
+        <v>550</v>
       </c>
       <c r="J59" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="K59" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="L59" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="O59" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -6419,41 +6906,45 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>35637</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>146378</v>
+      </c>
+      <c r="C60" t="s">
+        <v>556</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="J60" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="K60" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="L60" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
@@ -6482,41 +6973,45 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>35637</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>146379</v>
+      </c>
+      <c r="C61" t="s">
+        <v>562</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="J61" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="K61" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="L61" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
@@ -6545,50 +7040,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>35637</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>146380</v>
+      </c>
+      <c r="C62" t="s">
+        <v>568</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>508</v>
+        <v>569</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>509</v>
+        <v>570</v>
       </c>
       <c r="J62" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
       <c r="K62" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="L62" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="O62" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6612,50 +7111,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>35637</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>2548</v>
+      </c>
+      <c r="C63" t="s">
+        <v>575</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>514</v>
+        <v>576</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>515</v>
+        <v>577</v>
       </c>
       <c r="J63" t="s">
-        <v>516</v>
+        <v>578</v>
       </c>
       <c r="K63" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
       <c r="L63" t="s">
-        <v>518</v>
+        <v>580</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
       <c r="O63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6679,41 +7182,45 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>518</v>
+        <v>580</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>35637</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>146381</v>
+      </c>
+      <c r="C64" t="s">
+        <v>582</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>520</v>
+        <v>583</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>521</v>
+        <v>584</v>
       </c>
       <c r="J64" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
       <c r="K64" t="s">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="L64" t="s">
-        <v>524</v>
+        <v>587</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
@@ -6740,56 +7247,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>525</v>
+        <v>588</v>
       </c>
       <c r="X64" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
       <c r="Y64" t="s">
-        <v>527</v>
+        <v>590</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>35637</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>18465</v>
+      </c>
+      <c r="C65" t="s">
+        <v>591</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="J65" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="K65" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="L65" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
       <c r="O65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6811,56 +7322,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>525</v>
+        <v>588</v>
       </c>
       <c r="X65" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
       <c r="Y65" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>35637</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>146382</v>
+      </c>
+      <c r="C66" t="s">
+        <v>598</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="J66" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="K66" t="s">
-        <v>537</v>
+        <v>602</v>
       </c>
       <c r="L66" t="s">
-        <v>538</v>
+        <v>603</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>539</v>
+        <v>604</v>
       </c>
       <c r="O66" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6882,56 +7397,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>525</v>
+        <v>588</v>
       </c>
       <c r="X66" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
       <c r="Y66" t="s">
-        <v>540</v>
+        <v>605</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>35637</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>146383</v>
+      </c>
+      <c r="C67" t="s">
+        <v>606</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>541</v>
+        <v>607</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>542</v>
+        <v>608</v>
       </c>
       <c r="J67" t="s">
-        <v>543</v>
+        <v>609</v>
       </c>
       <c r="K67" t="s">
-        <v>544</v>
+        <v>610</v>
       </c>
       <c r="L67" t="s">
-        <v>545</v>
+        <v>611</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
       <c r="O67" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6953,56 +7472,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>547</v>
+        <v>613</v>
       </c>
       <c r="X67" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
       <c r="Y67" t="s">
-        <v>549</v>
+        <v>615</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>35637</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>146384</v>
+      </c>
+      <c r="C68" t="s">
+        <v>616</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>550</v>
+        <v>617</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>551</v>
+        <v>618</v>
       </c>
       <c r="J68" t="s">
-        <v>552</v>
+        <v>619</v>
       </c>
       <c r="K68" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="L68" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>555</v>
+        <v>622</v>
       </c>
       <c r="O68" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7024,56 +7547,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>556</v>
+        <v>623</v>
       </c>
       <c r="X68" t="s">
-        <v>557</v>
+        <v>624</v>
       </c>
       <c r="Y68" t="s">
-        <v>558</v>
+        <v>625</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>35637</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>146385</v>
+      </c>
+      <c r="C69" t="s">
+        <v>626</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>559</v>
+        <v>627</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>560</v>
+        <v>628</v>
       </c>
       <c r="J69" t="s">
-        <v>561</v>
+        <v>629</v>
       </c>
       <c r="K69" t="s">
-        <v>562</v>
+        <v>630</v>
       </c>
       <c r="L69" t="s">
-        <v>563</v>
+        <v>631</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>564</v>
+        <v>632</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7095,56 +7622,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>565</v>
+        <v>633</v>
       </c>
       <c r="X69" t="s">
-        <v>566</v>
+        <v>634</v>
       </c>
       <c r="Y69" t="s">
-        <v>567</v>
+        <v>635</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>35637</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>2117</v>
+      </c>
+      <c r="C70" t="s">
+        <v>636</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>568</v>
+        <v>637</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="J70" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="K70" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="L70" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -7166,56 +7697,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>574</v>
+        <v>643</v>
       </c>
       <c r="X70" t="s">
-        <v>575</v>
+        <v>644</v>
       </c>
       <c r="Y70" t="s">
-        <v>576</v>
+        <v>645</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>35637</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>146386</v>
+      </c>
+      <c r="C71" t="s">
+        <v>646</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>578</v>
+        <v>648</v>
       </c>
       <c r="J71" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="K71" t="s">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="L71" t="s">
-        <v>581</v>
+        <v>651</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
       <c r="O71" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -7237,56 +7772,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="X71" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="Y71" t="s">
-        <v>584</v>
+        <v>654</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>35637</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>146387</v>
+      </c>
+      <c r="C72" t="s">
+        <v>655</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>585</v>
+        <v>656</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>586</v>
+        <v>657</v>
       </c>
       <c r="J72" t="s">
-        <v>587</v>
+        <v>658</v>
       </c>
       <c r="K72" t="s">
-        <v>588</v>
+        <v>659</v>
       </c>
       <c r="L72" t="s">
-        <v>589</v>
+        <v>660</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
       <c r="O72" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7308,56 +7847,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="X72" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="Y72" t="s">
-        <v>590</v>
+        <v>661</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>35637</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>146388</v>
+      </c>
+      <c r="C73" t="s">
+        <v>662</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="J73" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="K73" t="s">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="L73" t="s">
-        <v>595</v>
+        <v>667</v>
       </c>
       <c r="M73" t="n">
         <v>2</v>
       </c>
       <c r="N73" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -7381,50 +7924,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>596</v>
+        <v>668</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>35637</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>146389</v>
+      </c>
+      <c r="C74" t="s">
+        <v>669</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>597</v>
+        <v>670</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>598</v>
+        <v>671</v>
       </c>
       <c r="J74" t="s">
-        <v>599</v>
+        <v>672</v>
       </c>
       <c r="K74" t="s">
-        <v>600</v>
+        <v>673</v>
       </c>
       <c r="L74" t="s">
-        <v>601</v>
+        <v>674</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="O74" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7446,56 +7993,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>602</v>
+        <v>675</v>
       </c>
       <c r="X74" t="s">
-        <v>603</v>
+        <v>676</v>
       </c>
       <c r="Y74" t="s">
-        <v>604</v>
+        <v>677</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>35637</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>146390</v>
+      </c>
+      <c r="C75" t="s">
+        <v>678</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>605</v>
+        <v>679</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>606</v>
+        <v>680</v>
       </c>
       <c r="J75" t="s">
-        <v>607</v>
+        <v>681</v>
       </c>
       <c r="K75" t="s">
-        <v>608</v>
+        <v>682</v>
       </c>
       <c r="L75" t="s">
-        <v>609</v>
+        <v>683</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="O75" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7517,56 +8068,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>610</v>
+        <v>684</v>
       </c>
       <c r="X75" t="s">
-        <v>611</v>
+        <v>685</v>
       </c>
       <c r="Y75" t="s">
-        <v>612</v>
+        <v>686</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>35637</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>146391</v>
+      </c>
+      <c r="C76" t="s">
+        <v>687</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>613</v>
+        <v>688</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>614</v>
+        <v>689</v>
       </c>
       <c r="J76" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
       <c r="K76" t="s">
-        <v>616</v>
+        <v>691</v>
       </c>
       <c r="L76" t="s">
-        <v>617</v>
+        <v>692</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
       <c r="O76" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7588,56 +8143,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>619</v>
+        <v>694</v>
       </c>
       <c r="X76" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="Y76" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>35637</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>11219</v>
+      </c>
+      <c r="C77" t="s">
+        <v>697</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="J77" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="K77" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="L77" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
       <c r="O77" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7659,56 +8218,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
       <c r="X77" t="s">
-        <v>628</v>
+        <v>704</v>
       </c>
       <c r="Y77" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>35637</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>146392</v>
+      </c>
+      <c r="C78" t="s">
+        <v>706</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>630</v>
+        <v>707</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>631</v>
+        <v>708</v>
       </c>
       <c r="J78" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="K78" t="s">
-        <v>633</v>
+        <v>710</v>
       </c>
       <c r="L78" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="O78" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7730,56 +8293,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>636</v>
+        <v>713</v>
       </c>
       <c r="X78" t="s">
-        <v>637</v>
+        <v>714</v>
       </c>
       <c r="Y78" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>35637</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C79" t="s">
+        <v>716</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>639</v>
+        <v>717</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
       <c r="J79" t="s">
-        <v>641</v>
+        <v>719</v>
       </c>
       <c r="K79" t="s">
-        <v>642</v>
+        <v>720</v>
       </c>
       <c r="L79" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="O79" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7801,56 +8368,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>644</v>
+        <v>722</v>
       </c>
       <c r="X79" t="s">
-        <v>645</v>
+        <v>723</v>
       </c>
       <c r="Y79" t="s">
-        <v>646</v>
+        <v>724</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>35637</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>146393</v>
+      </c>
+      <c r="C80" t="s">
+        <v>725</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>647</v>
+        <v>726</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>648</v>
+        <v>727</v>
       </c>
       <c r="J80" t="s">
-        <v>649</v>
+        <v>728</v>
       </c>
       <c r="K80" t="s">
-        <v>650</v>
+        <v>729</v>
       </c>
       <c r="L80" t="s">
-        <v>651</v>
+        <v>730</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>652</v>
+        <v>731</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7872,56 +8443,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>653</v>
+        <v>732</v>
       </c>
       <c r="X80" t="s">
-        <v>654</v>
+        <v>733</v>
       </c>
       <c r="Y80" t="s">
-        <v>655</v>
+        <v>734</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>35637</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>57694</v>
+      </c>
+      <c r="C81" t="s">
+        <v>735</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>656</v>
+        <v>736</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>657</v>
+        <v>737</v>
       </c>
       <c r="J81" t="s">
-        <v>658</v>
+        <v>738</v>
       </c>
       <c r="K81" t="s">
-        <v>659</v>
+        <v>739</v>
       </c>
       <c r="L81" t="s">
-        <v>660</v>
+        <v>740</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>652</v>
+        <v>731</v>
       </c>
       <c r="O81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7943,56 +8518,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>661</v>
+        <v>741</v>
       </c>
       <c r="X81" t="s">
-        <v>662</v>
+        <v>742</v>
       </c>
       <c r="Y81" t="s">
-        <v>663</v>
+        <v>743</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>35637</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>146394</v>
+      </c>
+      <c r="C82" t="s">
+        <v>744</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>664</v>
+        <v>745</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>665</v>
+        <v>746</v>
       </c>
       <c r="J82" t="s">
-        <v>658</v>
+        <v>738</v>
       </c>
       <c r="K82" t="s">
-        <v>666</v>
+        <v>747</v>
       </c>
       <c r="L82" t="s">
-        <v>667</v>
+        <v>748</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>652</v>
+        <v>731</v>
       </c>
       <c r="O82" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8014,47 +8593,51 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>661</v>
+        <v>741</v>
       </c>
       <c r="X82" t="s">
-        <v>662</v>
+        <v>742</v>
       </c>
       <c r="Y82" t="s">
-        <v>668</v>
+        <v>749</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>35637</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>146395</v>
+      </c>
+      <c r="C83" t="s">
+        <v>750</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>669</v>
+        <v>751</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>670</v>
+        <v>752</v>
       </c>
       <c r="J83" t="s">
-        <v>671</v>
+        <v>753</v>
       </c>
       <c r="K83" t="s">
-        <v>672</v>
+        <v>754</v>
       </c>
       <c r="L83" t="s">
-        <v>673</v>
+        <v>755</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
@@ -8081,56 +8664,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>674</v>
+        <v>756</v>
       </c>
       <c r="X83" t="s">
-        <v>675</v>
+        <v>757</v>
       </c>
       <c r="Y83" t="s">
-        <v>676</v>
+        <v>758</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>35637</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>146396</v>
+      </c>
+      <c r="C84" t="s">
+        <v>759</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>677</v>
+        <v>760</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>678</v>
+        <v>761</v>
       </c>
       <c r="J84" t="s">
-        <v>679</v>
+        <v>762</v>
       </c>
       <c r="K84" t="s">
-        <v>680</v>
+        <v>763</v>
       </c>
       <c r="L84" t="s">
-        <v>681</v>
+        <v>764</v>
       </c>
       <c r="M84" t="n">
         <v>2</v>
       </c>
       <c r="N84" t="s">
-        <v>682</v>
+        <v>765</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="s"/>
@@ -8142,56 +8729,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>683</v>
+        <v>766</v>
       </c>
       <c r="X84" t="s">
-        <v>684</v>
+        <v>767</v>
       </c>
       <c r="Y84" t="s">
-        <v>685</v>
+        <v>768</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>35637</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>146397</v>
+      </c>
+      <c r="C85" t="s">
+        <v>769</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>686</v>
+        <v>770</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>687</v>
+        <v>771</v>
       </c>
       <c r="J85" t="s">
-        <v>688</v>
+        <v>772</v>
       </c>
       <c r="K85" t="s">
-        <v>689</v>
+        <v>773</v>
       </c>
       <c r="L85" t="s">
-        <v>690</v>
+        <v>774</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>691</v>
+        <v>775</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8211,56 +8802,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>692</v>
+        <v>776</v>
       </c>
       <c r="X85" t="s">
-        <v>693</v>
+        <v>777</v>
       </c>
       <c r="Y85" t="s">
-        <v>694</v>
+        <v>778</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>35637</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>146398</v>
+      </c>
+      <c r="C86" t="s">
+        <v>779</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>695</v>
+        <v>780</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>696</v>
+        <v>781</v>
       </c>
       <c r="J86" t="s">
-        <v>697</v>
+        <v>782</v>
       </c>
       <c r="K86" t="s">
-        <v>698</v>
+        <v>783</v>
       </c>
       <c r="L86" t="s">
-        <v>699</v>
+        <v>784</v>
       </c>
       <c r="M86" t="n">
         <v>2</v>
       </c>
       <c r="N86" t="s">
-        <v>700</v>
+        <v>785</v>
       </c>
       <c r="O86" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -8284,7 +8879,7 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>701</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_258.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_258.xlsx
@@ -2888,7 +2888,7 @@
         <v>35637</v>
       </c>
       <c r="B2" t="n">
-        <v>146333</v>
+        <v>177665</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2953,7 +2953,7 @@
         <v>35637</v>
       </c>
       <c r="B3" t="n">
-        <v>146334</v>
+        <v>177666</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -3028,7 +3028,7 @@
         <v>35637</v>
       </c>
       <c r="B4" t="n">
-        <v>146335</v>
+        <v>177667</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -3103,7 +3103,7 @@
         <v>35637</v>
       </c>
       <c r="B5" t="n">
-        <v>146336</v>
+        <v>177668</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -3178,7 +3178,7 @@
         <v>35637</v>
       </c>
       <c r="B6" t="n">
-        <v>146337</v>
+        <v>177669</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
@@ -3243,7 +3243,7 @@
         <v>35637</v>
       </c>
       <c r="B7" t="n">
-        <v>146338</v>
+        <v>177670</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
@@ -3318,7 +3318,7 @@
         <v>35637</v>
       </c>
       <c r="B8" t="n">
-        <v>146339</v>
+        <v>177671</v>
       </c>
       <c r="C8" t="s">
         <v>109</v>
@@ -3393,7 +3393,7 @@
         <v>35637</v>
       </c>
       <c r="B9" t="n">
-        <v>146340</v>
+        <v>177672</v>
       </c>
       <c r="C9" t="s">
         <v>120</v>
@@ -3468,7 +3468,7 @@
         <v>35637</v>
       </c>
       <c r="B10" t="n">
-        <v>146341</v>
+        <v>177673</v>
       </c>
       <c r="C10" t="s">
         <v>129</v>
@@ -3543,7 +3543,7 @@
         <v>35637</v>
       </c>
       <c r="B11" t="n">
-        <v>146342</v>
+        <v>177674</v>
       </c>
       <c r="C11" t="s">
         <v>138</v>
@@ -3610,7 +3610,7 @@
         <v>35637</v>
       </c>
       <c r="B12" t="n">
-        <v>146343</v>
+        <v>177675</v>
       </c>
       <c r="C12" t="s">
         <v>147</v>
@@ -3740,7 +3740,7 @@
         <v>35637</v>
       </c>
       <c r="B14" t="n">
-        <v>146344</v>
+        <v>177676</v>
       </c>
       <c r="C14" t="s">
         <v>164</v>
@@ -3815,7 +3815,7 @@
         <v>35637</v>
       </c>
       <c r="B15" t="n">
-        <v>146345</v>
+        <v>177677</v>
       </c>
       <c r="C15" t="s">
         <v>173</v>
@@ -3886,7 +3886,7 @@
         <v>35637</v>
       </c>
       <c r="B16" t="n">
-        <v>146346</v>
+        <v>177678</v>
       </c>
       <c r="C16" t="s">
         <v>183</v>
@@ -4030,7 +4030,7 @@
         <v>35637</v>
       </c>
       <c r="B18" t="n">
-        <v>146347</v>
+        <v>177679</v>
       </c>
       <c r="C18" t="s">
         <v>201</v>
@@ -4101,7 +4101,7 @@
         <v>35637</v>
       </c>
       <c r="B19" t="n">
-        <v>146348</v>
+        <v>177680</v>
       </c>
       <c r="C19" t="s">
         <v>210</v>
@@ -4176,7 +4176,7 @@
         <v>35637</v>
       </c>
       <c r="B20" t="n">
-        <v>146349</v>
+        <v>177681</v>
       </c>
       <c r="C20" t="s">
         <v>219</v>
@@ -4251,7 +4251,7 @@
         <v>35637</v>
       </c>
       <c r="B21" t="n">
-        <v>146350</v>
+        <v>177682</v>
       </c>
       <c r="C21" t="s">
         <v>228</v>
@@ -4326,7 +4326,7 @@
         <v>35637</v>
       </c>
       <c r="B22" t="n">
-        <v>146351</v>
+        <v>177683</v>
       </c>
       <c r="C22" t="s">
         <v>237</v>
@@ -4391,7 +4391,7 @@
         <v>35637</v>
       </c>
       <c r="B23" t="n">
-        <v>146352</v>
+        <v>177684</v>
       </c>
       <c r="C23" t="s">
         <v>246</v>
@@ -4456,7 +4456,7 @@
         <v>35637</v>
       </c>
       <c r="B24" t="n">
-        <v>146353</v>
+        <v>177685</v>
       </c>
       <c r="C24" t="s">
         <v>256</v>
@@ -4527,7 +4527,7 @@
         <v>35637</v>
       </c>
       <c r="B25" t="n">
-        <v>146354</v>
+        <v>177686</v>
       </c>
       <c r="C25" t="s">
         <v>265</v>
@@ -4592,7 +4592,7 @@
         <v>35637</v>
       </c>
       <c r="B26" t="n">
-        <v>146355</v>
+        <v>177687</v>
       </c>
       <c r="C26" t="s">
         <v>275</v>
@@ -4728,7 +4728,7 @@
         <v>35637</v>
       </c>
       <c r="B28" t="n">
-        <v>146356</v>
+        <v>177688</v>
       </c>
       <c r="C28" t="s">
         <v>294</v>
@@ -4799,7 +4799,7 @@
         <v>35637</v>
       </c>
       <c r="B29" t="n">
-        <v>146357</v>
+        <v>177689</v>
       </c>
       <c r="C29" t="s">
         <v>304</v>
@@ -4941,7 +4941,7 @@
         <v>35637</v>
       </c>
       <c r="B31" t="n">
-        <v>146358</v>
+        <v>177690</v>
       </c>
       <c r="C31" t="s">
         <v>324</v>
@@ -5012,7 +5012,7 @@
         <v>35637</v>
       </c>
       <c r="B32" t="n">
-        <v>146359</v>
+        <v>177691</v>
       </c>
       <c r="C32" t="s">
         <v>334</v>
@@ -5081,7 +5081,7 @@
         <v>35637</v>
       </c>
       <c r="B33" t="n">
-        <v>146360</v>
+        <v>177692</v>
       </c>
       <c r="C33" t="s">
         <v>344</v>
@@ -5142,7 +5142,7 @@
         <v>35637</v>
       </c>
       <c r="B34" t="n">
-        <v>146361</v>
+        <v>177693</v>
       </c>
       <c r="C34" t="s">
         <v>350</v>
@@ -5343,7 +5343,7 @@
         <v>35637</v>
       </c>
       <c r="B37" t="n">
-        <v>146362</v>
+        <v>177694</v>
       </c>
       <c r="C37" t="s">
         <v>372</v>
@@ -5408,7 +5408,7 @@
         <v>35637</v>
       </c>
       <c r="B38" t="n">
-        <v>146363</v>
+        <v>177695</v>
       </c>
       <c r="C38" t="s">
         <v>379</v>
@@ -5613,7 +5613,7 @@
         <v>35637</v>
       </c>
       <c r="B41" t="n">
-        <v>146364</v>
+        <v>177696</v>
       </c>
       <c r="C41" t="s">
         <v>403</v>
@@ -5674,7 +5674,7 @@
         <v>35637</v>
       </c>
       <c r="B42" t="n">
-        <v>146365</v>
+        <v>177697</v>
       </c>
       <c r="C42" t="s">
         <v>410</v>
@@ -5735,7 +5735,7 @@
         <v>35637</v>
       </c>
       <c r="B43" t="n">
-        <v>146366</v>
+        <v>177698</v>
       </c>
       <c r="C43" t="s">
         <v>417</v>
@@ -5796,7 +5796,7 @@
         <v>35637</v>
       </c>
       <c r="B44" t="n">
-        <v>146367</v>
+        <v>177699</v>
       </c>
       <c r="C44" t="s">
         <v>423</v>
@@ -5863,7 +5863,7 @@
         <v>35637</v>
       </c>
       <c r="B45" t="n">
-        <v>146368</v>
+        <v>177700</v>
       </c>
       <c r="C45" t="s">
         <v>430</v>
@@ -5995,7 +5995,7 @@
         <v>35637</v>
       </c>
       <c r="B47" t="n">
-        <v>146369</v>
+        <v>177701</v>
       </c>
       <c r="C47" t="s">
         <v>444</v>
@@ -6066,7 +6066,7 @@
         <v>35637</v>
       </c>
       <c r="B48" t="n">
-        <v>146370</v>
+        <v>177702</v>
       </c>
       <c r="C48" t="s">
         <v>453</v>
@@ -6137,7 +6137,7 @@
         <v>35637</v>
       </c>
       <c r="B49" t="n">
-        <v>146371</v>
+        <v>177703</v>
       </c>
       <c r="C49" t="s">
         <v>460</v>
@@ -6208,7 +6208,7 @@
         <v>35637</v>
       </c>
       <c r="B50" t="n">
-        <v>146372</v>
+        <v>177704</v>
       </c>
       <c r="C50" t="s">
         <v>469</v>
@@ -6279,7 +6279,7 @@
         <v>35637</v>
       </c>
       <c r="B51" t="n">
-        <v>146373</v>
+        <v>177705</v>
       </c>
       <c r="C51" t="s">
         <v>478</v>
@@ -6344,7 +6344,7 @@
         <v>35637</v>
       </c>
       <c r="B52" t="n">
-        <v>146374</v>
+        <v>177706</v>
       </c>
       <c r="C52" t="s">
         <v>486</v>
@@ -6486,7 +6486,7 @@
         <v>35637</v>
       </c>
       <c r="B54" t="n">
-        <v>146375</v>
+        <v>177707</v>
       </c>
       <c r="C54" t="s">
         <v>502</v>
@@ -6557,7 +6557,7 @@
         <v>35637</v>
       </c>
       <c r="B55" t="n">
-        <v>146376</v>
+        <v>177708</v>
       </c>
       <c r="C55" t="s">
         <v>511</v>
@@ -6768,7 +6768,7 @@
         <v>35637</v>
       </c>
       <c r="B58" t="n">
-        <v>146377</v>
+        <v>177709</v>
       </c>
       <c r="C58" t="s">
         <v>538</v>
@@ -6914,7 +6914,7 @@
         <v>35637</v>
       </c>
       <c r="B60" t="n">
-        <v>146378</v>
+        <v>177710</v>
       </c>
       <c r="C60" t="s">
         <v>556</v>
@@ -6981,7 +6981,7 @@
         <v>35637</v>
       </c>
       <c r="B61" t="n">
-        <v>146379</v>
+        <v>177711</v>
       </c>
       <c r="C61" t="s">
         <v>562</v>
@@ -7048,7 +7048,7 @@
         <v>35637</v>
       </c>
       <c r="B62" t="n">
-        <v>146380</v>
+        <v>177712</v>
       </c>
       <c r="C62" t="s">
         <v>568</v>
@@ -7190,7 +7190,7 @@
         <v>35637</v>
       </c>
       <c r="B64" t="n">
-        <v>146381</v>
+        <v>177713</v>
       </c>
       <c r="C64" t="s">
         <v>582</v>
@@ -7336,7 +7336,7 @@
         <v>35637</v>
       </c>
       <c r="B66" t="n">
-        <v>146382</v>
+        <v>177714</v>
       </c>
       <c r="C66" t="s">
         <v>598</v>
@@ -7411,7 +7411,7 @@
         <v>35637</v>
       </c>
       <c r="B67" t="n">
-        <v>146383</v>
+        <v>177715</v>
       </c>
       <c r="C67" t="s">
         <v>606</v>
@@ -7486,7 +7486,7 @@
         <v>35637</v>
       </c>
       <c r="B68" t="n">
-        <v>146384</v>
+        <v>177716</v>
       </c>
       <c r="C68" t="s">
         <v>616</v>
@@ -7561,7 +7561,7 @@
         <v>35637</v>
       </c>
       <c r="B69" t="n">
-        <v>146385</v>
+        <v>177717</v>
       </c>
       <c r="C69" t="s">
         <v>626</v>
@@ -7711,7 +7711,7 @@
         <v>35637</v>
       </c>
       <c r="B71" t="n">
-        <v>146386</v>
+        <v>146635</v>
       </c>
       <c r="C71" t="s">
         <v>646</v>
@@ -7786,7 +7786,7 @@
         <v>35637</v>
       </c>
       <c r="B72" t="n">
-        <v>146387</v>
+        <v>177718</v>
       </c>
       <c r="C72" t="s">
         <v>655</v>
@@ -7861,7 +7861,7 @@
         <v>35637</v>
       </c>
       <c r="B73" t="n">
-        <v>146388</v>
+        <v>177719</v>
       </c>
       <c r="C73" t="s">
         <v>662</v>
@@ -7932,7 +7932,7 @@
         <v>35637</v>
       </c>
       <c r="B74" t="n">
-        <v>146389</v>
+        <v>177720</v>
       </c>
       <c r="C74" t="s">
         <v>669</v>
@@ -8007,7 +8007,7 @@
         <v>35637</v>
       </c>
       <c r="B75" t="n">
-        <v>146390</v>
+        <v>177721</v>
       </c>
       <c r="C75" t="s">
         <v>678</v>
@@ -8082,7 +8082,7 @@
         <v>35637</v>
       </c>
       <c r="B76" t="n">
-        <v>146391</v>
+        <v>177722</v>
       </c>
       <c r="C76" t="s">
         <v>687</v>
@@ -8232,7 +8232,7 @@
         <v>35637</v>
       </c>
       <c r="B78" t="n">
-        <v>146392</v>
+        <v>177723</v>
       </c>
       <c r="C78" t="s">
         <v>706</v>
@@ -8382,7 +8382,7 @@
         <v>35637</v>
       </c>
       <c r="B80" t="n">
-        <v>146393</v>
+        <v>177724</v>
       </c>
       <c r="C80" t="s">
         <v>725</v>
@@ -8532,7 +8532,7 @@
         <v>35637</v>
       </c>
       <c r="B82" t="n">
-        <v>146394</v>
+        <v>177725</v>
       </c>
       <c r="C82" t="s">
         <v>744</v>
@@ -8607,7 +8607,7 @@
         <v>35637</v>
       </c>
       <c r="B83" t="n">
-        <v>146395</v>
+        <v>177726</v>
       </c>
       <c r="C83" t="s">
         <v>750</v>
@@ -8678,7 +8678,7 @@
         <v>35637</v>
       </c>
       <c r="B84" t="n">
-        <v>146396</v>
+        <v>177727</v>
       </c>
       <c r="C84" t="s">
         <v>759</v>
@@ -8743,7 +8743,7 @@
         <v>35637</v>
       </c>
       <c r="B85" t="n">
-        <v>146397</v>
+        <v>177728</v>
       </c>
       <c r="C85" t="s">
         <v>769</v>
@@ -8816,7 +8816,7 @@
         <v>35637</v>
       </c>
       <c r="B86" t="n">
-        <v>146398</v>
+        <v>177729</v>
       </c>
       <c r="C86" t="s">
         <v>779</v>
